--- a/BOD-Values.xlsx
+++ b/BOD-Values.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,19 +447,19 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C2">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E2">
-        <v>11.89295401381369</v>
+        <v>2.075244446619121</v>
       </c>
       <c r="F2">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,19 +467,19 @@
         <v>44198</v>
       </c>
       <c r="B3">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C3">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E3">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F3">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,19 +487,19 @@
         <v>44199</v>
       </c>
       <c r="B4">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C4">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E4">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F4">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,19 +507,19 @@
         <v>44200</v>
       </c>
       <c r="B5">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C5">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E5">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F5">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,19 +527,19 @@
         <v>44201</v>
       </c>
       <c r="B6">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C6">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E6">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F6">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>44202</v>
       </c>
       <c r="B7">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C7">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E7">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F7">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,19 +567,19 @@
         <v>44203</v>
       </c>
       <c r="B8">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C8">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E8">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F8">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>44204</v>
       </c>
       <c r="B9">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C9">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E9">
-        <v>11.92873239436619</v>
+        <v>2.206220853544712</v>
       </c>
       <c r="F9">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>44205</v>
       </c>
       <c r="B10">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C10">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E10">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F10">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -627,19 +627,19 @@
         <v>44206</v>
       </c>
       <c r="B11">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C11">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E11">
-        <v>11.89586322525859</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F11">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -647,19 +647,19 @@
         <v>44207</v>
       </c>
       <c r="B12">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C12">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E12">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F12">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -667,19 +667,19 @@
         <v>44208</v>
       </c>
       <c r="B13">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C13">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E13">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F13">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -687,19 +687,19 @@
         <v>44209</v>
       </c>
       <c r="B14">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C14">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E14">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F14">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -707,19 +707,19 @@
         <v>44210</v>
       </c>
       <c r="B15">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C15">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E15">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F15">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -727,19 +727,19 @@
         <v>44211</v>
       </c>
       <c r="B16">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C16">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E16">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F16">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -747,19 +747,19 @@
         <v>44212</v>
       </c>
       <c r="B17">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C17">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E17">
-        <v>11.73611472740987</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F17">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -767,19 +767,19 @@
         <v>44213</v>
       </c>
       <c r="B18">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C18">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E18">
-        <v>11.87901704700626</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F18">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -787,19 +787,19 @@
         <v>44214</v>
       </c>
       <c r="B19">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C19">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E19">
-        <v>11.89387778812527</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F19">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -807,19 +807,19 @@
         <v>44215</v>
       </c>
       <c r="B20">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C20">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E20">
-        <v>11.83123706889597</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F20">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -827,19 +827,19 @@
         <v>44216</v>
       </c>
       <c r="B21">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C21">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E21">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F21">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -847,19 +847,19 @@
         <v>44217</v>
       </c>
       <c r="B22">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C22">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E22">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F22">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -867,19 +867,19 @@
         <v>44218</v>
       </c>
       <c r="B23">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C23">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E23">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F23">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -887,19 +887,19 @@
         <v>44219</v>
       </c>
       <c r="B24">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C24">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E24">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F24">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -907,19 +907,19 @@
         <v>44220</v>
       </c>
       <c r="B25">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C25">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E25">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F25">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -927,19 +927,19 @@
         <v>44221</v>
       </c>
       <c r="B26">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C26">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E26">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F26">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -947,19 +947,19 @@
         <v>44222</v>
       </c>
       <c r="B27">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C27">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E27">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F27">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -967,19 +967,19 @@
         <v>44223</v>
       </c>
       <c r="B28">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C28">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E28">
-        <v>11.92030885489165</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F28">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -987,19 +987,19 @@
         <v>44224</v>
       </c>
       <c r="B29">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C29">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E29">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F29">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1007,19 +1007,19 @@
         <v>44225</v>
       </c>
       <c r="B30">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C30">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E30">
-        <v>11.90923774264416</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F30">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1027,19 +1027,19 @@
         <v>44226</v>
       </c>
       <c r="B31">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C31">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E31">
-        <v>11.92873239436619</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F31">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1047,19 +1047,19 @@
         <v>44227</v>
       </c>
       <c r="B32">
-        <v>265</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C32">
-        <v>31.8</v>
+        <v>4.999200000000004</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>32.02333333</v>
       </c>
       <c r="E32">
-        <v>11.82391765607001</v>
+        <v>2.074785352112677</v>
       </c>
       <c r="F32">
-        <v>15.12222222</v>
+        <v>25.93333333</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1067,19 +1067,19 @@
         <v>44228</v>
       </c>
       <c r="B33">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C33">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D33">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E33">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F33">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1087,19 +1087,19 @@
         <v>44229</v>
       </c>
       <c r="B34">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C34">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D34">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E34">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F34">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1107,19 +1107,19 @@
         <v>44230</v>
       </c>
       <c r="B35">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C35">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D35">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E35">
-        <v>7.483591549295773</v>
+        <v>4.380323631460362</v>
       </c>
       <c r="F35">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1127,19 +1127,19 @@
         <v>44231</v>
       </c>
       <c r="B36">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C36">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D36">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E36">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F36">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1147,19 +1147,19 @@
         <v>44232</v>
       </c>
       <c r="B37">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C37">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D37">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E37">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F37">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1167,19 +1167,19 @@
         <v>44233</v>
       </c>
       <c r="B38">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C38">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D38">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E38">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F38">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1187,19 +1187,19 @@
         <v>44234</v>
       </c>
       <c r="B39">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C39">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D39">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E39">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F39">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1207,19 +1207,19 @@
         <v>44235</v>
       </c>
       <c r="B40">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C40">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D40">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E40">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F40">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1227,19 +1227,19 @@
         <v>44236</v>
       </c>
       <c r="B41">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C41">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D41">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E41">
-        <v>7.344080879998128</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F41">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1247,19 +1247,19 @@
         <v>44237</v>
       </c>
       <c r="B42">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C42">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D42">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E42">
-        <v>7.393360840887735</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F42">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1267,19 +1267,19 @@
         <v>44238</v>
       </c>
       <c r="B43">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C43">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D43">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E43">
-        <v>7.483591549295773</v>
+        <v>4.38000059536175</v>
       </c>
       <c r="F43">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1287,19 +1287,19 @@
         <v>44239</v>
       </c>
       <c r="B44">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C44">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D44">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E44">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F44">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1307,19 +1307,19 @@
         <v>44240</v>
       </c>
       <c r="B45">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C45">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D45">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E45">
-        <v>7.481776096282619</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F45">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1327,19 +1327,19 @@
         <v>44241</v>
       </c>
       <c r="B46">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C46">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D46">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E46">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F46">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1347,19 +1347,19 @@
         <v>44242</v>
       </c>
       <c r="B47">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C47">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D47">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E47">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F47">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1367,19 +1367,19 @@
         <v>44243</v>
       </c>
       <c r="B48">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C48">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D48">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E48">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F48">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1387,19 +1387,19 @@
         <v>44244</v>
       </c>
       <c r="B49">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C49">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D49">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E49">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F49">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1407,19 +1407,19 @@
         <v>44245</v>
       </c>
       <c r="B50">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C50">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D50">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E50">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F50">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1427,19 +1427,19 @@
         <v>44246</v>
       </c>
       <c r="B51">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C51">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D51">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E51">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F51">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1447,19 +1447,19 @@
         <v>44247</v>
       </c>
       <c r="B52">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C52">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D52">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E52">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F52">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1467,19 +1467,19 @@
         <v>44248</v>
       </c>
       <c r="B53">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C53">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D53">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E53">
-        <v>7.481776096282619</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F53">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1487,19 +1487,19 @@
         <v>44249</v>
       </c>
       <c r="B54">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C54">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D54">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E54">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F54">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1507,19 +1507,19 @@
         <v>44250</v>
       </c>
       <c r="B55">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C55">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D55">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E55">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F55">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1527,19 +1527,19 @@
         <v>44251</v>
       </c>
       <c r="B56">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C56">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D56">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E56">
-        <v>7.482683516331663</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F56">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1547,19 +1547,19 @@
         <v>44252</v>
       </c>
       <c r="B57">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C57">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D57">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E57">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F57">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1567,19 +1567,19 @@
         <v>44253</v>
       </c>
       <c r="B58">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C58">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D58">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E58">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F58">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1587,19 +1587,19 @@
         <v>44254</v>
       </c>
       <c r="B59">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C59">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D59">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E59">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F59">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1607,19 +1607,19 @@
         <v>44255</v>
       </c>
       <c r="B60">
-        <v>166.25</v>
+        <v>175.86</v>
       </c>
       <c r="C60">
-        <v>19.95</v>
+        <v>10.55160000000001</v>
       </c>
       <c r="D60">
-        <v>24.75</v>
+        <v>31.95888889</v>
       </c>
       <c r="E60">
-        <v>7.483591549295773</v>
+        <v>4.379161690140848</v>
       </c>
       <c r="F60">
-        <v>12.57625</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1627,19 +1627,19 @@
         <v>44256</v>
       </c>
       <c r="B61">
-        <v>166.25</v>
+        <v>84.5</v>
       </c>
       <c r="C61">
-        <v>19.95</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D61">
-        <v>24.75</v>
+        <v>32.65</v>
       </c>
       <c r="E61">
-        <v>7.483591549295773</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F61">
-        <v>12.57625</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1647,19 +1647,19 @@
         <v>44257</v>
       </c>
       <c r="B62">
-        <v>166.25</v>
+        <v>84.5</v>
       </c>
       <c r="C62">
-        <v>19.95</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D62">
-        <v>24.75</v>
+        <v>32.65</v>
       </c>
       <c r="E62">
-        <v>7.483591549295773</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F62">
-        <v>12.57625</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1667,19 +1667,19 @@
         <v>44258</v>
       </c>
       <c r="B63">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C63">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D63">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E63">
-        <v>9.227887323943662</v>
+        <v>2.114962600385728</v>
       </c>
       <c r="F63">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1687,19 +1687,19 @@
         <v>44259</v>
       </c>
       <c r="B64">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C64">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E64">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F64">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1707,19 +1707,19 @@
         <v>44260</v>
       </c>
       <c r="B65">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C65">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E65">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F65">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1727,19 +1727,19 @@
         <v>44261</v>
       </c>
       <c r="B66">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C66">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E66">
-        <v>9.227887323943662</v>
+        <v>2.1099780096897</v>
       </c>
       <c r="F66">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1747,19 +1747,19 @@
         <v>44262</v>
       </c>
       <c r="B67">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C67">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D67">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E67">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F67">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1767,19 +1767,19 @@
         <v>44263</v>
       </c>
       <c r="B68">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C68">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E68">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F68">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1787,19 +1787,19 @@
         <v>44264</v>
       </c>
       <c r="B69">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C69">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D69">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E69">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F69">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1807,19 +1807,19 @@
         <v>44265</v>
       </c>
       <c r="B70">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C70">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E70">
-        <v>9.227887323943662</v>
+        <v>2.106891517196951</v>
       </c>
       <c r="F70">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1827,19 +1827,19 @@
         <v>44266</v>
       </c>
       <c r="B71">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C71">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E71">
-        <v>9.227887323943662</v>
+        <v>2.130232600335908</v>
       </c>
       <c r="F71">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1847,19 +1847,19 @@
         <v>44267</v>
       </c>
       <c r="B72">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C72">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E72">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F72">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1867,19 +1867,19 @@
         <v>44268</v>
       </c>
       <c r="B73">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C73">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E73">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F73">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1887,19 +1887,19 @@
         <v>44269</v>
       </c>
       <c r="B74">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C74">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D74">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E74">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F74">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1907,19 +1907,19 @@
         <v>44270</v>
       </c>
       <c r="B75">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C75">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E75">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F75">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1927,19 +1927,19 @@
         <v>44271</v>
       </c>
       <c r="B76">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C76">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D76">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E76">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F76">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1947,19 +1947,19 @@
         <v>44272</v>
       </c>
       <c r="B77">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C77">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D77">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E77">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F77">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1967,19 +1967,19 @@
         <v>44273</v>
       </c>
       <c r="B78">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C78">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E78">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F78">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1987,19 +1987,19 @@
         <v>44274</v>
       </c>
       <c r="B79">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C79">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E79">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F79">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2007,19 +2007,19 @@
         <v>44275</v>
       </c>
       <c r="B80">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C80">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E80">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F80">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2027,19 +2027,19 @@
         <v>44276</v>
       </c>
       <c r="B81">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C81">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E81">
-        <v>9.218311840534641</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F81">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2047,19 +2047,19 @@
         <v>44277</v>
       </c>
       <c r="B82">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C82">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E82">
-        <v>9.223399580251638</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F82">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2067,19 +2067,19 @@
         <v>44278</v>
       </c>
       <c r="B83">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C83">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D83">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E83">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F83">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2087,19 +2087,19 @@
         <v>44279</v>
       </c>
       <c r="B84">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C84">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D84">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E84">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F84">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2107,19 +2107,19 @@
         <v>44280</v>
       </c>
       <c r="B85">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C85">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E85">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F85">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2127,19 +2127,19 @@
         <v>44281</v>
       </c>
       <c r="B86">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C86">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E86">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F86">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2147,19 +2147,19 @@
         <v>44282</v>
       </c>
       <c r="B87">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C87">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E87">
-        <v>9.191076102208037</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F87">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2167,19 +2167,19 @@
         <v>44283</v>
       </c>
       <c r="B88">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C88">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D88">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E88">
-        <v>9.221905683786416</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F88">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2187,19 +2187,19 @@
         <v>44284</v>
       </c>
       <c r="B89">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C89">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E89">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F89">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2207,19 +2207,19 @@
         <v>44285</v>
       </c>
       <c r="B90">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C90">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D90">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E90">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F90">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2227,19 +2227,19 @@
         <v>44286</v>
       </c>
       <c r="B91">
-        <v>205</v>
+        <v>84.5</v>
       </c>
       <c r="C91">
-        <v>24.6</v>
+        <v>5.070000000000005</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>32.65</v>
       </c>
       <c r="E91">
-        <v>9.227887323943662</v>
+        <v>2.104169014084509</v>
       </c>
       <c r="F91">
-        <v>15.95</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2247,19 +2247,19 @@
         <v>44287</v>
       </c>
       <c r="B92">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="C92">
-        <v>24.6</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>15.25</v>
       </c>
       <c r="E92">
-        <v>9.227887323943662</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F92">
-        <v>15.95</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2267,19 +2267,19 @@
         <v>44288</v>
       </c>
       <c r="B93">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="C93">
-        <v>24.6</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>15.25</v>
       </c>
       <c r="E93">
-        <v>9.227887323943662</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F93">
-        <v>15.95</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2287,19 +2287,19 @@
         <v>44289</v>
       </c>
       <c r="B94">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C94">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D94">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E94">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F94">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2307,19 +2307,19 @@
         <v>44290</v>
       </c>
       <c r="B95">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D95">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E95">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F95">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2327,19 +2327,19 @@
         <v>44291</v>
       </c>
       <c r="B96">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C96">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D96">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E96">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F96">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2347,19 +2347,19 @@
         <v>44292</v>
       </c>
       <c r="B97">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D97">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E97">
-        <v>9.002816901408449</v>
+        <v>0.7183803089391678</v>
       </c>
       <c r="F97">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2367,19 +2367,19 @@
         <v>44293</v>
       </c>
       <c r="B98">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C98">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D98">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E98">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F98">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2387,19 +2387,19 @@
         <v>44294</v>
       </c>
       <c r="B99">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C99">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D99">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E99">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F99">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2407,19 +2407,19 @@
         <v>44295</v>
       </c>
       <c r="B100">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C100">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D100">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E100">
-        <v>9.002816901408449</v>
+        <v>0.7075900271717369</v>
       </c>
       <c r="F100">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2427,19 +2427,19 @@
         <v>44296</v>
       </c>
       <c r="B101">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C101">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D101">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E101">
-        <v>9.002816901408449</v>
+        <v>0.7062129713527046</v>
       </c>
       <c r="F101">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2447,19 +2447,19 @@
         <v>44297</v>
       </c>
       <c r="B102">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C102">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D102">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E102">
-        <v>9.002816901408449</v>
+        <v>0.8030334494588035</v>
       </c>
       <c r="F102">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2467,19 +2467,19 @@
         <v>44298</v>
       </c>
       <c r="B103">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D103">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E103">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F103">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2487,19 +2487,19 @@
         <v>44299</v>
       </c>
       <c r="B104">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C104">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D104">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E104">
-        <v>9.002816901408449</v>
+        <v>0.709653872192095</v>
       </c>
       <c r="F104">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2507,19 +2507,19 @@
         <v>44300</v>
       </c>
       <c r="B105">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D105">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E105">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F105">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2527,19 +2527,19 @@
         <v>44301</v>
       </c>
       <c r="B106">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C106">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D106">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E106">
-        <v>9.002106312150788</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F106">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2547,19 +2547,19 @@
         <v>44302</v>
       </c>
       <c r="B107">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C107">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D107">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E107">
-        <v>9.002816901408449</v>
+        <v>0.6993137473776548</v>
       </c>
       <c r="F107">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2567,19 +2567,19 @@
         <v>44303</v>
       </c>
       <c r="B108">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D108">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E108">
-        <v>9.002816901408449</v>
+        <v>0.8514882674287861</v>
       </c>
       <c r="F108">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2587,19 +2587,19 @@
         <v>44304</v>
       </c>
       <c r="B109">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C109">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D109">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E109">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F109">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2607,19 +2607,19 @@
         <v>44305</v>
       </c>
       <c r="B110">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C110">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D110">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E110">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F110">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2627,19 +2627,19 @@
         <v>44306</v>
       </c>
       <c r="B111">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C111">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D111">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E111">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F111">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2647,19 +2647,19 @@
         <v>44307</v>
       </c>
       <c r="B112">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C112">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D112">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E112">
-        <v>9.002816901408449</v>
+        <v>0.6986225438943512</v>
       </c>
       <c r="F112">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2667,19 +2667,19 @@
         <v>44308</v>
       </c>
       <c r="B113">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D113">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E113">
-        <v>9.002816901408449</v>
+        <v>0.6993137473776548</v>
       </c>
       <c r="F113">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2687,19 +2687,19 @@
         <v>44309</v>
       </c>
       <c r="B114">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C114">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D114">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E114">
-        <v>9.000685853220082</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F114">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2707,19 +2707,19 @@
         <v>44310</v>
       </c>
       <c r="B115">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C115">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D115">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E115">
-        <v>9.002816901408449</v>
+        <v>0.7013859586291442</v>
       </c>
       <c r="F115">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2727,19 +2727,19 @@
         <v>44311</v>
       </c>
       <c r="B116">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C116">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D116">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E116">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F116">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2747,19 +2747,19 @@
         <v>44312</v>
       </c>
       <c r="B117">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C117">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D117">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E117">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F117">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2767,19 +2767,19 @@
         <v>44313</v>
       </c>
       <c r="B118">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C118">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D118">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E118">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F118">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2787,19 +2787,19 @@
         <v>44314</v>
       </c>
       <c r="B119">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C119">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D119">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E119">
-        <v>9.002816901408449</v>
+        <v>0.6979311070144509</v>
       </c>
       <c r="F119">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2807,19 +2807,19 @@
         <v>44315</v>
       </c>
       <c r="B120">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C120">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D120">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E120">
-        <v>9.002816901408449</v>
+        <v>0.6972394366197189</v>
       </c>
       <c r="F120">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2827,19 +2827,19 @@
         <v>44316</v>
       </c>
       <c r="B121">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="C121">
-        <v>24</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="D121">
-        <v>17.5</v>
+        <v>15.25</v>
       </c>
       <c r="E121">
-        <v>9.002816901408449</v>
+        <v>0.8658846414633988</v>
       </c>
       <c r="F121">
-        <v>12.75</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2847,19 +2847,19 @@
         <v>44317</v>
       </c>
       <c r="B122">
-        <v>200</v>
+        <v>105.83</v>
       </c>
       <c r="C122">
-        <v>24</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D122">
-        <v>17.5</v>
+        <v>23.47777778</v>
       </c>
       <c r="E122">
-        <v>9.002816901408449</v>
+        <v>2.786962178381825</v>
       </c>
       <c r="F122">
-        <v>12.75</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2867,19 +2867,19 @@
         <v>44318</v>
       </c>
       <c r="B123">
-        <v>200</v>
+        <v>105.83</v>
       </c>
       <c r="C123">
-        <v>24</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D123">
-        <v>17.5</v>
+        <v>23.47777778</v>
       </c>
       <c r="E123">
-        <v>9.002816901408449</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F123">
-        <v>12.75</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2887,19 +2887,19 @@
         <v>44319</v>
       </c>
       <c r="B124">
-        <v>200</v>
+        <v>105.83</v>
       </c>
       <c r="C124">
-        <v>24</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D124">
-        <v>17.5</v>
+        <v>23.47777778</v>
       </c>
       <c r="E124">
-        <v>9.002816901408449</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F124">
-        <v>12.75</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2907,19 +2907,19 @@
         <v>44320</v>
       </c>
       <c r="B125">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C125">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D125">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E125">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F125">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2927,19 +2927,19 @@
         <v>44321</v>
       </c>
       <c r="B126">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C126">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D126">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E126">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F126">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2947,19 +2947,19 @@
         <v>44322</v>
       </c>
       <c r="B127">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C127">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D127">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E127">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F127">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2967,19 +2967,19 @@
         <v>44323</v>
       </c>
       <c r="B128">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C128">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D128">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E128">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F128">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2987,19 +2987,19 @@
         <v>44324</v>
       </c>
       <c r="B129">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C129">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D129">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E129">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F129">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3007,19 +3007,19 @@
         <v>44325</v>
       </c>
       <c r="B130">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C130">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D130">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E130">
-        <v>6.301462724637836</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F130">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3027,19 +3027,19 @@
         <v>44326</v>
       </c>
       <c r="B131">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C131">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D131">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E131">
-        <v>6.301971830985915</v>
+        <v>2.645260948966398</v>
       </c>
       <c r="F131">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3047,19 +3047,19 @@
         <v>44327</v>
       </c>
       <c r="B132">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C132">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D132">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E132">
-        <v>6.299683556324873</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F132">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3067,19 +3067,19 @@
         <v>44328</v>
       </c>
       <c r="B133">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C133">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D133">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E133">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F133">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3087,19 +3087,19 @@
         <v>44329</v>
       </c>
       <c r="B134">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C134">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D134">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E134">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F134">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3107,19 +3107,19 @@
         <v>44330</v>
       </c>
       <c r="B135">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C135">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D135">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E135">
-        <v>6.301462724637836</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F135">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3127,19 +3127,19 @@
         <v>44331</v>
       </c>
       <c r="B136">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C136">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D136">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E136">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F136">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3147,19 +3147,19 @@
         <v>44332</v>
       </c>
       <c r="B137">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C137">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D137">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E137">
-        <v>6.301971830985915</v>
+        <v>2.850096722397702</v>
       </c>
       <c r="F137">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3167,19 +3167,19 @@
         <v>44333</v>
       </c>
       <c r="B138">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C138">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D138">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E138">
-        <v>6.301971830985915</v>
+        <v>2.799706831300896</v>
       </c>
       <c r="F138">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3187,19 +3187,19 @@
         <v>44334</v>
       </c>
       <c r="B139">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C139">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D139">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E139">
-        <v>6.301971830985915</v>
+        <v>2.783046775006067</v>
       </c>
       <c r="F139">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3207,19 +3207,19 @@
         <v>44335</v>
       </c>
       <c r="B140">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C140">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D140">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E140">
-        <v>6.301971830985915</v>
+        <v>2.8017010725287</v>
       </c>
       <c r="F140">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3227,19 +3227,19 @@
         <v>44336</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C141">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D141">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E141">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F141">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3247,19 +3247,19 @@
         <v>44337</v>
       </c>
       <c r="B142">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C142">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D142">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E142">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F142">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3267,19 +3267,19 @@
         <v>44338</v>
       </c>
       <c r="B143">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C143">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D143">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E143">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F143">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3287,19 +3287,19 @@
         <v>44339</v>
       </c>
       <c r="B144">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C144">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D144">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E144">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F144">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3307,19 +3307,19 @@
         <v>44340</v>
       </c>
       <c r="B145">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C145">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D145">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E145">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F145">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3327,19 +3327,19 @@
         <v>44341</v>
       </c>
       <c r="B146">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C146">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D146">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E146">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F146">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3347,19 +3347,19 @@
         <v>44342</v>
       </c>
       <c r="B147">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C147">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D147">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E147">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F147">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3367,19 +3367,19 @@
         <v>44343</v>
       </c>
       <c r="B148">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C148">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D148">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E148">
-        <v>6.299072378539673</v>
+        <v>2.637864681627307</v>
       </c>
       <c r="F148">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3387,19 +3387,19 @@
         <v>44344</v>
       </c>
       <c r="B149">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C149">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D149">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E149">
-        <v>6.301971830985915</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F149">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3407,19 +3407,19 @@
         <v>44345</v>
       </c>
       <c r="B150">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C150">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D150">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E150">
-        <v>6.301462724637836</v>
+        <v>2.641214356278876</v>
       </c>
       <c r="F150">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3427,19 +3427,19 @@
         <v>44346</v>
       </c>
       <c r="B151">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C151">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D151">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E151">
-        <v>6.311783345542198</v>
+        <v>2.63531605633803</v>
       </c>
       <c r="F151">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3447,19 +3447,19 @@
         <v>44347</v>
       </c>
       <c r="B152">
-        <v>140</v>
+        <v>105.83</v>
       </c>
       <c r="C152">
-        <v>16.8</v>
+        <v>6.349800000000005</v>
       </c>
       <c r="D152">
-        <v>7.6</v>
+        <v>23.47777778</v>
       </c>
       <c r="E152">
-        <v>6.299937466059339</v>
+        <v>2.806953083803255</v>
       </c>
       <c r="F152">
-        <v>13.31666667</v>
+        <v>15.12222222</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3467,19 +3467,19 @@
         <v>44348</v>
       </c>
       <c r="B153">
-        <v>140</v>
+        <v>58.91</v>
       </c>
       <c r="C153">
-        <v>16.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D153">
-        <v>7.6</v>
+        <v>11.475</v>
       </c>
       <c r="E153">
-        <v>6.301971830985915</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F153">
-        <v>13.31666667</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3487,19 +3487,19 @@
         <v>44349</v>
       </c>
       <c r="B154">
-        <v>140</v>
+        <v>58.91</v>
       </c>
       <c r="C154">
-        <v>16.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D154">
-        <v>7.6</v>
+        <v>11.475</v>
       </c>
       <c r="E154">
-        <v>6.301971830985915</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F154">
-        <v>13.31666667</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3507,19 +3507,19 @@
         <v>44350</v>
       </c>
       <c r="B155">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C155">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D155">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E155">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F155">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3527,19 +3527,19 @@
         <v>44351</v>
       </c>
       <c r="B156">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C156">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E156">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F156">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3547,19 +3547,19 @@
         <v>44352</v>
       </c>
       <c r="B157">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C157">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D157">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E157">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F157">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3567,19 +3567,19 @@
         <v>44353</v>
       </c>
       <c r="B158">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C158">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D158">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E158">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F158">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3587,19 +3587,19 @@
         <v>44354</v>
       </c>
       <c r="B159">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C159">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D159">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E159">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F159">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3607,19 +3607,19 @@
         <v>44355</v>
       </c>
       <c r="B160">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C160">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D160">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E160">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F160">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3627,19 +3627,19 @@
         <v>44356</v>
       </c>
       <c r="B161">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C161">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D161">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E161">
-        <v>15.30478873239437</v>
+        <v>1.569508286053173</v>
       </c>
       <c r="F161">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3647,19 +3647,19 @@
         <v>44357</v>
       </c>
       <c r="B162">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C162">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D162">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E162">
-        <v>15.30478873239437</v>
+        <v>1.511800237047347</v>
       </c>
       <c r="F162">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3667,19 +3667,19 @@
         <v>44358</v>
       </c>
       <c r="B163">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C163">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D163">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E163">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F163">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3687,19 +3687,19 @@
         <v>44359</v>
       </c>
       <c r="B164">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C164">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D164">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E164">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F164">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3707,19 +3707,19 @@
         <v>44360</v>
       </c>
       <c r="B165">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C165">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D165">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E165">
-        <v>15.29415027399754</v>
+        <v>1.46918770967314</v>
       </c>
       <c r="F165">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3727,19 +3727,19 @@
         <v>44361</v>
       </c>
       <c r="B166">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C166">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D166">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E166">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F166">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3747,19 +3747,19 @@
         <v>44362</v>
       </c>
       <c r="B167">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C167">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D167">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E167">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F167">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3767,19 +3767,19 @@
         <v>44363</v>
       </c>
       <c r="B168">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C168">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D168">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E168">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F168">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3787,19 +3787,19 @@
         <v>44364</v>
       </c>
       <c r="B169">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C169">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D169">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E169">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F169">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3807,19 +3807,19 @@
         <v>44365</v>
       </c>
       <c r="B170">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C170">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D170">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E170">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F170">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3827,19 +3827,19 @@
         <v>44366</v>
       </c>
       <c r="B171">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C171">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D171">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E171">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F171">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3847,19 +3847,19 @@
         <v>44367</v>
       </c>
       <c r="B172">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C172">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D172">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E172">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F172">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3867,19 +3867,19 @@
         <v>44368</v>
       </c>
       <c r="B173">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C173">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D173">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E173">
-        <v>15.30478873239437</v>
+        <v>1.46918770967314</v>
       </c>
       <c r="F173">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3887,19 +3887,19 @@
         <v>44369</v>
       </c>
       <c r="B174">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C174">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D174">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E174">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F174">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3907,19 +3907,19 @@
         <v>44370</v>
       </c>
       <c r="B175">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C175">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D175">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E175">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F175">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3927,19 +3927,19 @@
         <v>44371</v>
       </c>
       <c r="B176">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C176">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D176">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E176">
-        <v>15.30478873239437</v>
+        <v>1.468065219843824</v>
       </c>
       <c r="F176">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3947,19 +3947,19 @@
         <v>44372</v>
       </c>
       <c r="B177">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C177">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D177">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E177">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F177">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3967,19 +3967,19 @@
         <v>44373</v>
       </c>
       <c r="B178">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C178">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D178">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E178">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F178">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3987,19 +3987,19 @@
         <v>44374</v>
       </c>
       <c r="B179">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C179">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D179">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E179">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F179">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4007,19 +4007,19 @@
         <v>44375</v>
       </c>
       <c r="B180">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C180">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D180">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E180">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F180">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4027,19 +4027,19 @@
         <v>44376</v>
       </c>
       <c r="B181">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C181">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D181">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E181">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F181">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4047,19 +4047,19 @@
         <v>44377</v>
       </c>
       <c r="B182">
-        <v>340</v>
+        <v>58.91</v>
       </c>
       <c r="C182">
-        <v>40.8</v>
+        <v>3.534600000000003</v>
       </c>
       <c r="D182">
-        <v>27</v>
+        <v>11.475</v>
       </c>
       <c r="E182">
-        <v>15.30478873239437</v>
+        <v>1.466941971830987</v>
       </c>
       <c r="F182">
-        <v>46.5</v>
+        <v>12.57625</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4067,19 +4067,19 @@
         <v>44378</v>
       </c>
       <c r="B183">
-        <v>340</v>
+        <v>113.05</v>
       </c>
       <c r="C183">
-        <v>40.8</v>
+        <v>6.783000000000006</v>
       </c>
       <c r="D183">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E183">
-        <v>15.30478873239437</v>
+        <v>2.815104225352115</v>
       </c>
       <c r="F183">
-        <v>46.5</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4087,19 +4087,19 @@
         <v>44379</v>
       </c>
       <c r="B184">
-        <v>340</v>
+        <v>113.05</v>
       </c>
       <c r="C184">
-        <v>40.8</v>
+        <v>6.783000000000006</v>
       </c>
       <c r="D184">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E184">
-        <v>15.30478873239437</v>
+        <v>2.815104225352115</v>
       </c>
       <c r="F184">
-        <v>46.5</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4107,23 +4107,3643 @@
         <v>44380</v>
       </c>
       <c r="B185">
-        <v>340</v>
+        <v>113.05</v>
       </c>
       <c r="C185">
-        <v>40.8</v>
+        <v>6.783000000000006</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>15.30478873239437</v>
+        <v>2.815104225352115</v>
       </c>
       <c r="F185">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B186">
+        <v>113.05</v>
+      </c>
+      <c r="C186">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D186">
+        <v>18</v>
+      </c>
+      <c r="E186">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F186">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B187">
+        <v>113.05</v>
+      </c>
+      <c r="C187">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D187">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F187">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B188">
+        <v>113.05</v>
+      </c>
+      <c r="C188">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D188">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F188">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B189">
+        <v>113.05</v>
+      </c>
+      <c r="C189">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D189">
+        <v>18</v>
+      </c>
+      <c r="E189">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F189">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B190">
+        <v>113.05</v>
+      </c>
+      <c r="C190">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D190">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F190">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B191">
+        <v>113.05</v>
+      </c>
+      <c r="C191">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D191">
+        <v>18</v>
+      </c>
+      <c r="E191">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F191">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B192">
+        <v>113.05</v>
+      </c>
+      <c r="C192">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+      <c r="E192">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F192">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B193">
+        <v>113.05</v>
+      </c>
+      <c r="C193">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D193">
+        <v>18</v>
+      </c>
+      <c r="E193">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F193">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2">
+        <v>44389</v>
+      </c>
+      <c r="B194">
+        <v>113.05</v>
+      </c>
+      <c r="C194">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
+      <c r="E194">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F194">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2">
+        <v>44390</v>
+      </c>
+      <c r="B195">
+        <v>113.05</v>
+      </c>
+      <c r="C195">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D195">
+        <v>18</v>
+      </c>
+      <c r="E195">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F195">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B196">
+        <v>113.05</v>
+      </c>
+      <c r="C196">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D196">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F196">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B197">
+        <v>113.05</v>
+      </c>
+      <c r="C197">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D197">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F197">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B198">
+        <v>113.05</v>
+      </c>
+      <c r="C198">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D198">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F198">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B199">
+        <v>113.05</v>
+      </c>
+      <c r="C199">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D199">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F199">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B200">
+        <v>113.05</v>
+      </c>
+      <c r="C200">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D200">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F200">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B201">
+        <v>113.05</v>
+      </c>
+      <c r="C201">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D201">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>2.81937787559938</v>
+      </c>
+      <c r="F201">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B202">
+        <v>113.05</v>
+      </c>
+      <c r="C202">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D202">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>2.81710715785378</v>
+      </c>
+      <c r="F202">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B203">
+        <v>113.05</v>
+      </c>
+      <c r="C203">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D203">
+        <v>18</v>
+      </c>
+      <c r="E203">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F203">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B204">
+        <v>113.05</v>
+      </c>
+      <c r="C204">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D204">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F204">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B205">
+        <v>113.05</v>
+      </c>
+      <c r="C205">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D205">
+        <v>18</v>
+      </c>
+      <c r="E205">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F205">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B206">
+        <v>113.05</v>
+      </c>
+      <c r="C206">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D206">
+        <v>18</v>
+      </c>
+      <c r="E206">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F206">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B207">
+        <v>113.05</v>
+      </c>
+      <c r="C207">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D207">
+        <v>18</v>
+      </c>
+      <c r="E207">
+        <v>2.831533504183554</v>
+      </c>
+      <c r="F207">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B208">
+        <v>113.05</v>
+      </c>
+      <c r="C208">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D208">
+        <v>18</v>
+      </c>
+      <c r="E208">
+        <v>2.817773901319909</v>
+      </c>
+      <c r="F208">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B209">
+        <v>113.05</v>
+      </c>
+      <c r="C209">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D209">
+        <v>18</v>
+      </c>
+      <c r="E209">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F209">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B210">
+        <v>113.05</v>
+      </c>
+      <c r="C210">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D210">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F210">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B211">
+        <v>113.05</v>
+      </c>
+      <c r="C211">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F211">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B212">
+        <v>113.05</v>
+      </c>
+      <c r="C212">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D212">
+        <v>18</v>
+      </c>
+      <c r="E212">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F212">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B213">
+        <v>113.05</v>
+      </c>
+      <c r="C213">
+        <v>6.783000000000006</v>
+      </c>
+      <c r="D213">
+        <v>18</v>
+      </c>
+      <c r="E213">
+        <v>2.815104225352115</v>
+      </c>
+      <c r="F213">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B214">
+        <v>123.5</v>
+      </c>
+      <c r="C214">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D214">
+        <v>18.75</v>
+      </c>
+      <c r="E214">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F214">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B215">
+        <v>123.5</v>
+      </c>
+      <c r="C215">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D215">
+        <v>18.75</v>
+      </c>
+      <c r="E215">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F215">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B216">
+        <v>123.5</v>
+      </c>
+      <c r="C216">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D216">
+        <v>18.75</v>
+      </c>
+      <c r="E216">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F216">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B217">
+        <v>123.5</v>
+      </c>
+      <c r="C217">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D217">
+        <v>18.75</v>
+      </c>
+      <c r="E217">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F217">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B218">
+        <v>123.5</v>
+      </c>
+      <c r="C218">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D218">
+        <v>18.75</v>
+      </c>
+      <c r="E218">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F218">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B219">
+        <v>123.5</v>
+      </c>
+      <c r="C219">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D219">
+        <v>18.75</v>
+      </c>
+      <c r="E219">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F219">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B220">
+        <v>123.5</v>
+      </c>
+      <c r="C220">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D220">
+        <v>18.75</v>
+      </c>
+      <c r="E220">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F220">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B221">
+        <v>123.5</v>
+      </c>
+      <c r="C221">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D221">
+        <v>18.75</v>
+      </c>
+      <c r="E221">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F221">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B222">
+        <v>123.5</v>
+      </c>
+      <c r="C222">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D222">
+        <v>18.75</v>
+      </c>
+      <c r="E222">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F222">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B223">
+        <v>123.5</v>
+      </c>
+      <c r="C223">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D223">
+        <v>18.75</v>
+      </c>
+      <c r="E223">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F223">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B224">
+        <v>123.5</v>
+      </c>
+      <c r="C224">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D224">
+        <v>18.75</v>
+      </c>
+      <c r="E224">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F224">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B225">
+        <v>123.5</v>
+      </c>
+      <c r="C225">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D225">
+        <v>18.75</v>
+      </c>
+      <c r="E225">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F225">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B226">
+        <v>123.5</v>
+      </c>
+      <c r="C226">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D226">
+        <v>18.75</v>
+      </c>
+      <c r="E226">
+        <v>3.07561411374341</v>
+      </c>
+      <c r="F226">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B227">
+        <v>123.5</v>
+      </c>
+      <c r="C227">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D227">
+        <v>18.75</v>
+      </c>
+      <c r="E227">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F227">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B228">
+        <v>123.5</v>
+      </c>
+      <c r="C228">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D228">
+        <v>18.75</v>
+      </c>
+      <c r="E228">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F228">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B229">
+        <v>123.5</v>
+      </c>
+      <c r="C229">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D229">
+        <v>18.75</v>
+      </c>
+      <c r="E229">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F229">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B230">
+        <v>123.5</v>
+      </c>
+      <c r="C230">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D230">
+        <v>18.75</v>
+      </c>
+      <c r="E230">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F230">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B231">
+        <v>123.5</v>
+      </c>
+      <c r="C231">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D231">
+        <v>18.75</v>
+      </c>
+      <c r="E231">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F231">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B232">
+        <v>123.5</v>
+      </c>
+      <c r="C232">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D232">
+        <v>18.75</v>
+      </c>
+      <c r="E232">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F232">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B233">
+        <v>123.5</v>
+      </c>
+      <c r="C233">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D233">
+        <v>18.75</v>
+      </c>
+      <c r="E233">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F233">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B234">
+        <v>123.5</v>
+      </c>
+      <c r="C234">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D234">
+        <v>18.75</v>
+      </c>
+      <c r="E234">
+        <v>3.076194160062935</v>
+      </c>
+      <c r="F234">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B235">
+        <v>123.5</v>
+      </c>
+      <c r="C235">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D235">
+        <v>18.75</v>
+      </c>
+      <c r="E235">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F235">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B236">
+        <v>123.5</v>
+      </c>
+      <c r="C236">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D236">
+        <v>18.75</v>
+      </c>
+      <c r="E236">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F236">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B237">
+        <v>123.5</v>
+      </c>
+      <c r="C237">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D237">
+        <v>18.75</v>
+      </c>
+      <c r="E237">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F237">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B238">
+        <v>123.5</v>
+      </c>
+      <c r="C238">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D238">
+        <v>18.75</v>
+      </c>
+      <c r="E238">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F238">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B239">
+        <v>123.5</v>
+      </c>
+      <c r="C239">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D239">
+        <v>18.75</v>
+      </c>
+      <c r="E239">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F239">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B240">
+        <v>123.5</v>
+      </c>
+      <c r="C240">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D240">
+        <v>18.75</v>
+      </c>
+      <c r="E240">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F240">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B241">
+        <v>123.5</v>
+      </c>
+      <c r="C241">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D241">
+        <v>18.75</v>
+      </c>
+      <c r="E241">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F241">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B242">
+        <v>123.5</v>
+      </c>
+      <c r="C242">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D242">
+        <v>18.75</v>
+      </c>
+      <c r="E242">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F242">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B243">
+        <v>123.5</v>
+      </c>
+      <c r="C243">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D243">
+        <v>18.75</v>
+      </c>
+      <c r="E243">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F243">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B244">
+        <v>123.5</v>
+      </c>
+      <c r="C244">
+        <v>7.410000000000005</v>
+      </c>
+      <c r="D244">
+        <v>18.75</v>
+      </c>
+      <c r="E244">
+        <v>3.075323943661974</v>
+      </c>
+      <c r="F244">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B245">
+        <v>60.35</v>
+      </c>
+      <c r="C245">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D245">
+        <v>15.122</v>
+      </c>
+      <c r="E245">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F245">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B246">
+        <v>60.35</v>
+      </c>
+      <c r="C246">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D246">
+        <v>15.122</v>
+      </c>
+      <c r="E246">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F246">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B247">
+        <v>60.35</v>
+      </c>
+      <c r="C247">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D247">
+        <v>15.122</v>
+      </c>
+      <c r="E247">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F247">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B248">
+        <v>60.35</v>
+      </c>
+      <c r="C248">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D248">
+        <v>15.122</v>
+      </c>
+      <c r="E248">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F248">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B249">
+        <v>60.35</v>
+      </c>
+      <c r="C249">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D249">
+        <v>15.122</v>
+      </c>
+      <c r="E249">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F249">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B250">
+        <v>60.35</v>
+      </c>
+      <c r="C250">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D250">
+        <v>15.122</v>
+      </c>
+      <c r="E250">
+        <v>1.503911141984466</v>
+      </c>
+      <c r="F250">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B251">
+        <v>60.35</v>
+      </c>
+      <c r="C251">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D251">
+        <v>15.122</v>
+      </c>
+      <c r="E251">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F251">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B252">
+        <v>60.35</v>
+      </c>
+      <c r="C252">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D252">
+        <v>15.122</v>
+      </c>
+      <c r="E252">
+        <v>1.507794237564439</v>
+      </c>
+      <c r="F252">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B253">
+        <v>60.35</v>
+      </c>
+      <c r="C253">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D253">
+        <v>15.122</v>
+      </c>
+      <c r="E253">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F253">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B254">
+        <v>60.35</v>
+      </c>
+      <c r="C254">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D254">
+        <v>15.122</v>
+      </c>
+      <c r="E254">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F254">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B255">
+        <v>60.35</v>
+      </c>
+      <c r="C255">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D255">
+        <v>15.122</v>
+      </c>
+      <c r="E255">
+        <v>1.503911141984466</v>
+      </c>
+      <c r="F255">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B256">
+        <v>60.35</v>
+      </c>
+      <c r="C256">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D256">
+        <v>15.122</v>
+      </c>
+      <c r="E256">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F256">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B257">
+        <v>60.35</v>
+      </c>
+      <c r="C257">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D257">
+        <v>15.122</v>
+      </c>
+      <c r="E257">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F257">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B258">
+        <v>60.35</v>
+      </c>
+      <c r="C258">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D258">
+        <v>15.122</v>
+      </c>
+      <c r="E258">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F258">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B259">
+        <v>60.35</v>
+      </c>
+      <c r="C259">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D259">
+        <v>15.122</v>
+      </c>
+      <c r="E259">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F259">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B260">
+        <v>60.35</v>
+      </c>
+      <c r="C260">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D260">
+        <v>15.122</v>
+      </c>
+      <c r="E260">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F260">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B261">
+        <v>60.35</v>
+      </c>
+      <c r="C261">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D261">
+        <v>15.122</v>
+      </c>
+      <c r="E261">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F261">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B262">
+        <v>60.35</v>
+      </c>
+      <c r="C262">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D262">
+        <v>15.122</v>
+      </c>
+      <c r="E262">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F262">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B263">
+        <v>60.35</v>
+      </c>
+      <c r="C263">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D263">
+        <v>15.122</v>
+      </c>
+      <c r="E263">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F263">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B264">
+        <v>60.35</v>
+      </c>
+      <c r="C264">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D264">
+        <v>15.122</v>
+      </c>
+      <c r="E264">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F264">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B265">
+        <v>60.35</v>
+      </c>
+      <c r="C265">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D265">
+        <v>15.122</v>
+      </c>
+      <c r="E265">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F265">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B266">
+        <v>60.35</v>
+      </c>
+      <c r="C266">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D266">
+        <v>15.122</v>
+      </c>
+      <c r="E266">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F266">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B267">
+        <v>60.35</v>
+      </c>
+      <c r="C267">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D267">
+        <v>15.122</v>
+      </c>
+      <c r="E267">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F267">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B268">
+        <v>60.35</v>
+      </c>
+      <c r="C268">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D268">
+        <v>15.122</v>
+      </c>
+      <c r="E268">
+        <v>1.509128153944913</v>
+      </c>
+      <c r="F268">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B269">
+        <v>60.35</v>
+      </c>
+      <c r="C269">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D269">
+        <v>15.122</v>
+      </c>
+      <c r="E269">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F269">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B270">
+        <v>60.35</v>
+      </c>
+      <c r="C270">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D270">
+        <v>15.122</v>
+      </c>
+      <c r="E270">
+        <v>1.503911141984466</v>
+      </c>
+      <c r="F270">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B271">
+        <v>60.35</v>
+      </c>
+      <c r="C271">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D271">
+        <v>15.122</v>
+      </c>
+      <c r="E271">
+        <v>1.707137739002525</v>
+      </c>
+      <c r="F271">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B272">
+        <v>60.35</v>
+      </c>
+      <c r="C272">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D272">
+        <v>15.122</v>
+      </c>
+      <c r="E272">
+        <v>1.50724007090104</v>
+      </c>
+      <c r="F272">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B273">
+        <v>60.35</v>
+      </c>
+      <c r="C273">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D273">
+        <v>15.122</v>
+      </c>
+      <c r="E273">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F273">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B274">
+        <v>60.35</v>
+      </c>
+      <c r="C274">
+        <v>3.621000000000003</v>
+      </c>
+      <c r="D274">
+        <v>15.122</v>
+      </c>
+      <c r="E274">
+        <v>1.502800000000001</v>
+      </c>
+      <c r="F274">
+        <v>13.31666667</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="2">
+        <v>44470</v>
+      </c>
+      <c r="B275">
+        <v>115.99</v>
+      </c>
+      <c r="C275">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D275">
+        <v>21.485</v>
+      </c>
+      <c r="E275">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F275">
         <v>46.5</v>
       </c>
     </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="2">
+        <v>44471</v>
+      </c>
+      <c r="B276">
+        <v>115.99</v>
+      </c>
+      <c r="C276">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D276">
+        <v>21.485</v>
+      </c>
+      <c r="E276">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F276">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="2">
+        <v>44472</v>
+      </c>
+      <c r="B277">
+        <v>115.99</v>
+      </c>
+      <c r="C277">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D277">
+        <v>21.485</v>
+      </c>
+      <c r="E277">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F277">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="2">
+        <v>44473</v>
+      </c>
+      <c r="B278">
+        <v>115.99</v>
+      </c>
+      <c r="C278">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D278">
+        <v>21.485</v>
+      </c>
+      <c r="E278">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F278">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="2">
+        <v>44474</v>
+      </c>
+      <c r="B279">
+        <v>115.99</v>
+      </c>
+      <c r="C279">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D279">
+        <v>21.485</v>
+      </c>
+      <c r="E279">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F279">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="2">
+        <v>44475</v>
+      </c>
+      <c r="B280">
+        <v>115.99</v>
+      </c>
+      <c r="C280">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D280">
+        <v>21.485</v>
+      </c>
+      <c r="E280">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F280">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="2">
+        <v>44476</v>
+      </c>
+      <c r="B281">
+        <v>115.99</v>
+      </c>
+      <c r="C281">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D281">
+        <v>21.485</v>
+      </c>
+      <c r="E281">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F281">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="2">
+        <v>44477</v>
+      </c>
+      <c r="B282">
+        <v>115.99</v>
+      </c>
+      <c r="C282">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D282">
+        <v>21.485</v>
+      </c>
+      <c r="E282">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F282">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="2">
+        <v>44478</v>
+      </c>
+      <c r="B283">
+        <v>115.99</v>
+      </c>
+      <c r="C283">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D283">
+        <v>21.485</v>
+      </c>
+      <c r="E283">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F283">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="2">
+        <v>44479</v>
+      </c>
+      <c r="B284">
+        <v>115.99</v>
+      </c>
+      <c r="C284">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D284">
+        <v>21.485</v>
+      </c>
+      <c r="E284">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F284">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="2">
+        <v>44480</v>
+      </c>
+      <c r="B285">
+        <v>115.99</v>
+      </c>
+      <c r="C285">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D285">
+        <v>21.485</v>
+      </c>
+      <c r="E285">
+        <v>2.890243199308459</v>
+      </c>
+      <c r="F285">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="2">
+        <v>44481</v>
+      </c>
+      <c r="B286">
+        <v>115.99</v>
+      </c>
+      <c r="C286">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D286">
+        <v>21.485</v>
+      </c>
+      <c r="E286">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F286">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="2">
+        <v>44482</v>
+      </c>
+      <c r="B287">
+        <v>115.99</v>
+      </c>
+      <c r="C287">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D287">
+        <v>21.485</v>
+      </c>
+      <c r="E287">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F287">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B288">
+        <v>115.99</v>
+      </c>
+      <c r="C288">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D288">
+        <v>21.485</v>
+      </c>
+      <c r="E288">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F288">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B289">
+        <v>115.99</v>
+      </c>
+      <c r="C289">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D289">
+        <v>21.485</v>
+      </c>
+      <c r="E289">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F289">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B290">
+        <v>115.99</v>
+      </c>
+      <c r="C290">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D290">
+        <v>21.485</v>
+      </c>
+      <c r="E290">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F290">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B291">
+        <v>115.99</v>
+      </c>
+      <c r="C291">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D291">
+        <v>21.485</v>
+      </c>
+      <c r="E291">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F291">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B292">
+        <v>115.99</v>
+      </c>
+      <c r="C292">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D292">
+        <v>21.485</v>
+      </c>
+      <c r="E292">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F292">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="2">
+        <v>44488</v>
+      </c>
+      <c r="B293">
+        <v>115.99</v>
+      </c>
+      <c r="C293">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D293">
+        <v>21.485</v>
+      </c>
+      <c r="E293">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F293">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B294">
+        <v>115.99</v>
+      </c>
+      <c r="C294">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D294">
+        <v>21.485</v>
+      </c>
+      <c r="E294">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F294">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B295">
+        <v>115.99</v>
+      </c>
+      <c r="C295">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D295">
+        <v>21.485</v>
+      </c>
+      <c r="E295">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F295">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B296">
+        <v>115.99</v>
+      </c>
+      <c r="C296">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D296">
+        <v>21.485</v>
+      </c>
+      <c r="E296">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F296">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B297">
+        <v>115.99</v>
+      </c>
+      <c r="C297">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D297">
+        <v>21.485</v>
+      </c>
+      <c r="E297">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F297">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="2">
+        <v>44493</v>
+      </c>
+      <c r="B298">
+        <v>115.99</v>
+      </c>
+      <c r="C298">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D298">
+        <v>21.485</v>
+      </c>
+      <c r="E298">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F298">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B299">
+        <v>115.99</v>
+      </c>
+      <c r="C299">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D299">
+        <v>21.485</v>
+      </c>
+      <c r="E299">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F299">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="2">
+        <v>44495</v>
+      </c>
+      <c r="B300">
+        <v>115.99</v>
+      </c>
+      <c r="C300">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D300">
+        <v>21.485</v>
+      </c>
+      <c r="E300">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F300">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="2">
+        <v>44496</v>
+      </c>
+      <c r="B301">
+        <v>115.99</v>
+      </c>
+      <c r="C301">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D301">
+        <v>21.485</v>
+      </c>
+      <c r="E301">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F301">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B302">
+        <v>115.99</v>
+      </c>
+      <c r="C302">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D302">
+        <v>21.485</v>
+      </c>
+      <c r="E302">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F302">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B303">
+        <v>115.99</v>
+      </c>
+      <c r="C303">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D303">
+        <v>21.485</v>
+      </c>
+      <c r="E303">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F303">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B304">
+        <v>115.99</v>
+      </c>
+      <c r="C304">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D304">
+        <v>21.485</v>
+      </c>
+      <c r="E304">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F304">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B305">
+        <v>115.99</v>
+      </c>
+      <c r="C305">
+        <v>6.959400000000006</v>
+      </c>
+      <c r="D305">
+        <v>21.485</v>
+      </c>
+      <c r="E305">
+        <v>2.888314366197185</v>
+      </c>
+      <c r="F305">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="2">
+        <v>44501</v>
+      </c>
+      <c r="B306">
+        <v>24</v>
+      </c>
+      <c r="C306">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D306">
+        <v>20</v>
+      </c>
+      <c r="E306">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F306">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B307">
+        <v>24</v>
+      </c>
+      <c r="C307">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D307">
+        <v>20</v>
+      </c>
+      <c r="E307">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F307">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B308">
+        <v>24</v>
+      </c>
+      <c r="C308">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D308">
+        <v>20</v>
+      </c>
+      <c r="E308">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F308">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="2">
+        <v>44504</v>
+      </c>
+      <c r="B309">
+        <v>24</v>
+      </c>
+      <c r="C309">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D309">
+        <v>20</v>
+      </c>
+      <c r="E309">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F309">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="2">
+        <v>44505</v>
+      </c>
+      <c r="B310">
+        <v>24</v>
+      </c>
+      <c r="C310">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D310">
+        <v>20</v>
+      </c>
+      <c r="E310">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F310">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="2">
+        <v>44506</v>
+      </c>
+      <c r="B311">
+        <v>24</v>
+      </c>
+      <c r="C311">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D311">
+        <v>20</v>
+      </c>
+      <c r="E311">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F311">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B312">
+        <v>24</v>
+      </c>
+      <c r="C312">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D312">
+        <v>20</v>
+      </c>
+      <c r="E312">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F312">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="2">
+        <v>44508</v>
+      </c>
+      <c r="B313">
+        <v>24</v>
+      </c>
+      <c r="C313">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D313">
+        <v>20</v>
+      </c>
+      <c r="E313">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F313">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="2">
+        <v>44509</v>
+      </c>
+      <c r="B314">
+        <v>24</v>
+      </c>
+      <c r="C314">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D314">
+        <v>20</v>
+      </c>
+      <c r="E314">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F314">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="2">
+        <v>44510</v>
+      </c>
+      <c r="B315">
+        <v>24</v>
+      </c>
+      <c r="C315">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D315">
+        <v>20</v>
+      </c>
+      <c r="E315">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F315">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="2">
+        <v>44511</v>
+      </c>
+      <c r="B316">
+        <v>24</v>
+      </c>
+      <c r="C316">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D316">
+        <v>20</v>
+      </c>
+      <c r="E316">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F316">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B317">
+        <v>24</v>
+      </c>
+      <c r="C317">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D317">
+        <v>20</v>
+      </c>
+      <c r="E317">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F317">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="2">
+        <v>44513</v>
+      </c>
+      <c r="B318">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D318">
+        <v>20</v>
+      </c>
+      <c r="E318">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F318">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="2">
+        <v>44514</v>
+      </c>
+      <c r="B319">
+        <v>24</v>
+      </c>
+      <c r="C319">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D319">
+        <v>20</v>
+      </c>
+      <c r="E319">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F319">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B320">
+        <v>24</v>
+      </c>
+      <c r="C320">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D320">
+        <v>20</v>
+      </c>
+      <c r="E320">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F320">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="2">
+        <v>44516</v>
+      </c>
+      <c r="B321">
+        <v>24</v>
+      </c>
+      <c r="C321">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D321">
+        <v>20</v>
+      </c>
+      <c r="E321">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F321">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B322">
+        <v>24</v>
+      </c>
+      <c r="C322">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D322">
+        <v>20</v>
+      </c>
+      <c r="E322">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F322">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="2">
+        <v>44518</v>
+      </c>
+      <c r="B323">
+        <v>24</v>
+      </c>
+      <c r="C323">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D323">
+        <v>20</v>
+      </c>
+      <c r="E323">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F323">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>44519</v>
+      </c>
+      <c r="B324">
+        <v>24</v>
+      </c>
+      <c r="C324">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D324">
+        <v>20</v>
+      </c>
+      <c r="E324">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F324">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="2">
+        <v>44520</v>
+      </c>
+      <c r="B325">
+        <v>24</v>
+      </c>
+      <c r="C325">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D325">
+        <v>20</v>
+      </c>
+      <c r="E325">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F325">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="2">
+        <v>44521</v>
+      </c>
+      <c r="B326">
+        <v>24</v>
+      </c>
+      <c r="C326">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D326">
+        <v>20</v>
+      </c>
+      <c r="E326">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F326">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="2">
+        <v>44522</v>
+      </c>
+      <c r="B327">
+        <v>24</v>
+      </c>
+      <c r="C327">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D327">
+        <v>20</v>
+      </c>
+      <c r="E327">
+        <v>0.598342289978683</v>
+      </c>
+      <c r="F327">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>44523</v>
+      </c>
+      <c r="B328">
+        <v>24</v>
+      </c>
+      <c r="C328">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D328">
+        <v>20</v>
+      </c>
+      <c r="E328">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F328">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B329">
+        <v>24</v>
+      </c>
+      <c r="C329">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D329">
+        <v>20</v>
+      </c>
+      <c r="E329">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F329">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B330">
+        <v>24</v>
+      </c>
+      <c r="C330">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D330">
+        <v>20</v>
+      </c>
+      <c r="E330">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F330">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B331">
+        <v>24</v>
+      </c>
+      <c r="C331">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D331">
+        <v>20</v>
+      </c>
+      <c r="E331">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F331">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="2">
+        <v>44527</v>
+      </c>
+      <c r="B332">
+        <v>24</v>
+      </c>
+      <c r="C332">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D332">
+        <v>20</v>
+      </c>
+      <c r="E332">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F332">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" s="2">
+        <v>44528</v>
+      </c>
+      <c r="B333">
+        <v>24</v>
+      </c>
+      <c r="C333">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D333">
+        <v>20</v>
+      </c>
+      <c r="E333">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F333">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B334">
+        <v>24</v>
+      </c>
+      <c r="C334">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D334">
+        <v>20</v>
+      </c>
+      <c r="E334">
+        <v>0.5976338028169018</v>
+      </c>
+      <c r="F334">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B335">
+        <v>24</v>
+      </c>
+      <c r="C335">
+        <v>1.440000000000001</v>
+      </c>
+      <c r="D335">
+        <v>20</v>
+      </c>
+      <c r="E335">
+        <v>0.6004663167943425</v>
+      </c>
+      <c r="F335">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B336">
+        <v>45.68</v>
+      </c>
+      <c r="C336">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D336">
+        <v>24.84</v>
+      </c>
+      <c r="E336">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F336">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="2">
+        <v>44532</v>
+      </c>
+      <c r="B337">
+        <v>45.68</v>
+      </c>
+      <c r="C337">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D337">
+        <v>24.84</v>
+      </c>
+      <c r="E337">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F337">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" s="2">
+        <v>44533</v>
+      </c>
+      <c r="B338">
+        <v>45.68</v>
+      </c>
+      <c r="C338">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D338">
+        <v>24.84</v>
+      </c>
+      <c r="E338">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F338">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="2">
+        <v>44534</v>
+      </c>
+      <c r="B339">
+        <v>45.68</v>
+      </c>
+      <c r="C339">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D339">
+        <v>24.84</v>
+      </c>
+      <c r="E339">
+        <v>1.14058095630254</v>
+      </c>
+      <c r="F339">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="2">
+        <v>44535</v>
+      </c>
+      <c r="B340">
+        <v>45.68</v>
+      </c>
+      <c r="C340">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D340">
+        <v>24.84</v>
+      </c>
+      <c r="E340">
+        <v>1.141813346884698</v>
+      </c>
+      <c r="F340">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>44536</v>
+      </c>
+      <c r="B341">
+        <v>45.68</v>
+      </c>
+      <c r="C341">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D341">
+        <v>24.84</v>
+      </c>
+      <c r="E341">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F341">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" s="2">
+        <v>44537</v>
+      </c>
+      <c r="B342">
+        <v>45.68</v>
+      </c>
+      <c r="C342">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D342">
+        <v>24.84</v>
+      </c>
+      <c r="E342">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F342">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B343">
+        <v>45.68</v>
+      </c>
+      <c r="C343">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D343">
+        <v>24.84</v>
+      </c>
+      <c r="E343">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F343">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>44539</v>
+      </c>
+      <c r="B344">
+        <v>45.68</v>
+      </c>
+      <c r="C344">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D344">
+        <v>24.84</v>
+      </c>
+      <c r="E344">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F344">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" s="2">
+        <v>44540</v>
+      </c>
+      <c r="B345">
+        <v>45.68</v>
+      </c>
+      <c r="C345">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D345">
+        <v>24.84</v>
+      </c>
+      <c r="E345">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F345">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>44541</v>
+      </c>
+      <c r="B346">
+        <v>45.68</v>
+      </c>
+      <c r="C346">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D346">
+        <v>24.84</v>
+      </c>
+      <c r="E346">
+        <v>1.149691366909088</v>
+      </c>
+      <c r="F346">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" s="2">
+        <v>44542</v>
+      </c>
+      <c r="B347">
+        <v>45.68</v>
+      </c>
+      <c r="C347">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D347">
+        <v>24.84</v>
+      </c>
+      <c r="E347">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F347">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B348">
+        <v>45.68</v>
+      </c>
+      <c r="C348">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D348">
+        <v>24.84</v>
+      </c>
+      <c r="E348">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F348">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="2">
+        <v>44544</v>
+      </c>
+      <c r="B349">
+        <v>45.68</v>
+      </c>
+      <c r="C349">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D349">
+        <v>24.84</v>
+      </c>
+      <c r="E349">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F349">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B350">
+        <v>45.68</v>
+      </c>
+      <c r="C350">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D350">
+        <v>24.84</v>
+      </c>
+      <c r="E350">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F350">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" s="2">
+        <v>44546</v>
+      </c>
+      <c r="B351">
+        <v>45.68</v>
+      </c>
+      <c r="C351">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D351">
+        <v>24.84</v>
+      </c>
+      <c r="E351">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F351">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" s="2">
+        <v>44547</v>
+      </c>
+      <c r="B352">
+        <v>45.68</v>
+      </c>
+      <c r="C352">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D352">
+        <v>24.84</v>
+      </c>
+      <c r="E352">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F352">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B353">
+        <v>45.68</v>
+      </c>
+      <c r="C353">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D353">
+        <v>24.84</v>
+      </c>
+      <c r="E353">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F353">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B354">
+        <v>45.68</v>
+      </c>
+      <c r="C354">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D354">
+        <v>24.84</v>
+      </c>
+      <c r="E354">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F354">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B355">
+        <v>45.68</v>
+      </c>
+      <c r="C355">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D355">
+        <v>24.84</v>
+      </c>
+      <c r="E355">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F355">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" s="2">
+        <v>44551</v>
+      </c>
+      <c r="B356">
+        <v>45.68</v>
+      </c>
+      <c r="C356">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D356">
+        <v>24.84</v>
+      </c>
+      <c r="E356">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F356">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B357">
+        <v>45.68</v>
+      </c>
+      <c r="C357">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D357">
+        <v>24.84</v>
+      </c>
+      <c r="E357">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F357">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B358">
+        <v>45.68</v>
+      </c>
+      <c r="C358">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D358">
+        <v>24.84</v>
+      </c>
+      <c r="E358">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F358">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="2">
+        <v>44554</v>
+      </c>
+      <c r="B359">
+        <v>45.68</v>
+      </c>
+      <c r="C359">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D359">
+        <v>24.84</v>
+      </c>
+      <c r="E359">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F359">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" s="2">
+        <v>44555</v>
+      </c>
+      <c r="B360">
+        <v>45.68</v>
+      </c>
+      <c r="C360">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D360">
+        <v>24.84</v>
+      </c>
+      <c r="E360">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F360">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B361">
+        <v>45.68</v>
+      </c>
+      <c r="C361">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D361">
+        <v>24.84</v>
+      </c>
+      <c r="E361">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F361">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B362">
+        <v>45.68</v>
+      </c>
+      <c r="C362">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D362">
+        <v>24.84</v>
+      </c>
+      <c r="E362">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F362">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" s="2">
+        <v>44558</v>
+      </c>
+      <c r="B363">
+        <v>45.68</v>
+      </c>
+      <c r="C363">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D363">
+        <v>24.84</v>
+      </c>
+      <c r="E363">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F363">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="2">
+        <v>44559</v>
+      </c>
+      <c r="B364">
+        <v>45.68</v>
+      </c>
+      <c r="C364">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D364">
+        <v>24.84</v>
+      </c>
+      <c r="E364">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F364">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" s="2">
+        <v>44560</v>
+      </c>
+      <c r="B365">
+        <v>45.68</v>
+      </c>
+      <c r="C365">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D365">
+        <v>24.84</v>
+      </c>
+      <c r="E365">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F365">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B366">
+        <v>45.68</v>
+      </c>
+      <c r="C366">
+        <v>2.740800000000002</v>
+      </c>
+      <c r="D366">
+        <v>24.84</v>
+      </c>
+      <c r="E366">
+        <v>1.13749633802817</v>
+      </c>
+      <c r="F366">
+        <v>19.15</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:E188">
+  <conditionalFormatting sqref="B5:E369">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>

--- a/BOD-Values.xlsx
+++ b/BOD-Values.xlsx
@@ -22,13 +22,13 @@
     <t>Modelled BOD in STP effluent (mg/L)</t>
   </si>
   <si>
-    <t>Experimental BOD in STP effluent (mg/L)</t>
+    <t>Measured BOD in STP effluent (mg/L)</t>
   </si>
   <si>
     <t>Modelled BOD in wetland effluent (mg/L)</t>
   </si>
   <si>
-    <t>Experimental BOD in wetland effluent (mg/L)</t>
+    <t>Measured BOD in wetland effluent (mg/L)</t>
   </si>
   <si>
     <t>Date</t>
@@ -450,13 +450,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C2">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D2">
         <v>32.02333333</v>
       </c>
       <c r="E2">
-        <v>2.075244446619121</v>
+        <v>4.352855543097847</v>
       </c>
       <c r="F2">
         <v>25.93333333</v>
@@ -470,13 +470,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C3">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D3">
         <v>32.02333333</v>
       </c>
       <c r="E3">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F3">
         <v>25.93333333</v>
@@ -490,13 +490,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C4">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D4">
         <v>32.02333333</v>
       </c>
       <c r="E4">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F4">
         <v>25.93333333</v>
@@ -510,13 +510,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C5">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D5">
         <v>32.02333333</v>
       </c>
       <c r="E5">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F5">
         <v>25.93333333</v>
@@ -530,13 +530,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C6">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D6">
         <v>32.02333333</v>
       </c>
       <c r="E6">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F6">
         <v>25.93333333</v>
@@ -550,13 +550,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C7">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D7">
         <v>32.02333333</v>
       </c>
       <c r="E7">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F7">
         <v>25.93333333</v>
@@ -570,13 +570,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C8">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D8">
         <v>32.02333333</v>
       </c>
       <c r="E8">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F8">
         <v>25.93333333</v>
@@ -590,13 +590,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C9">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D9">
         <v>32.02333333</v>
       </c>
       <c r="E9">
-        <v>2.206220853544712</v>
+        <v>9.155065861988319</v>
       </c>
       <c r="F9">
         <v>25.93333333</v>
@@ -610,13 +610,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C10">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D10">
         <v>32.02333333</v>
       </c>
       <c r="E10">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F10">
         <v>25.93333333</v>
@@ -630,13 +630,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C11">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D11">
         <v>32.02333333</v>
       </c>
       <c r="E11">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F11">
         <v>25.93333333</v>
@@ -650,13 +650,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C12">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D12">
         <v>32.02333333</v>
       </c>
       <c r="E12">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F12">
         <v>25.93333333</v>
@@ -670,13 +670,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C13">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D13">
         <v>32.02333333</v>
       </c>
       <c r="E13">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F13">
         <v>25.93333333</v>
@@ -690,13 +690,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C14">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D14">
         <v>32.02333333</v>
       </c>
       <c r="E14">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F14">
         <v>25.93333333</v>
@@ -710,13 +710,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C15">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D15">
         <v>32.02333333</v>
       </c>
       <c r="E15">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F15">
         <v>25.93333333</v>
@@ -730,13 +730,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C16">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D16">
         <v>32.02333333</v>
       </c>
       <c r="E16">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F16">
         <v>25.93333333</v>
@@ -750,13 +750,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C17">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D17">
         <v>32.02333333</v>
       </c>
       <c r="E17">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F17">
         <v>25.93333333</v>
@@ -770,13 +770,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C18">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D18">
         <v>32.02333333</v>
       </c>
       <c r="E18">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F18">
         <v>25.93333333</v>
@@ -790,13 +790,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C19">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D19">
         <v>32.02333333</v>
       </c>
       <c r="E19">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F19">
         <v>25.93333333</v>
@@ -810,13 +810,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C20">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D20">
         <v>32.02333333</v>
       </c>
       <c r="E20">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F20">
         <v>25.93333333</v>
@@ -830,13 +830,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C21">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D21">
         <v>32.02333333</v>
       </c>
       <c r="E21">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F21">
         <v>25.93333333</v>
@@ -850,13 +850,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C22">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D22">
         <v>32.02333333</v>
       </c>
       <c r="E22">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F22">
         <v>25.93333333</v>
@@ -870,13 +870,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C23">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D23">
         <v>32.02333333</v>
       </c>
       <c r="E23">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F23">
         <v>25.93333333</v>
@@ -890,13 +890,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C24">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D24">
         <v>32.02333333</v>
       </c>
       <c r="E24">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F24">
         <v>25.93333333</v>
@@ -910,13 +910,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C25">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D25">
         <v>32.02333333</v>
       </c>
       <c r="E25">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F25">
         <v>25.93333333</v>
@@ -930,13 +930,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C26">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D26">
         <v>32.02333333</v>
       </c>
       <c r="E26">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F26">
         <v>25.93333333</v>
@@ -950,13 +950,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C27">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D27">
         <v>32.02333333</v>
       </c>
       <c r="E27">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F27">
         <v>25.93333333</v>
@@ -970,13 +970,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C28">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D28">
         <v>32.02333333</v>
       </c>
       <c r="E28">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F28">
         <v>25.93333333</v>
@@ -990,13 +990,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C29">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D29">
         <v>32.02333333</v>
       </c>
       <c r="E29">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F29">
         <v>25.93333333</v>
@@ -1010,13 +1010,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C30">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D30">
         <v>32.02333333</v>
       </c>
       <c r="E30">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F30">
         <v>25.93333333</v>
@@ -1030,13 +1030,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C31">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D31">
         <v>32.02333333</v>
       </c>
       <c r="E31">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F31">
         <v>25.93333333</v>
@@ -1050,13 +1050,13 @@
         <v>83.31999999999999</v>
       </c>
       <c r="C32">
-        <v>4.999200000000004</v>
+        <v>9.998399999999998</v>
       </c>
       <c r="D32">
         <v>32.02333333</v>
       </c>
       <c r="E32">
-        <v>2.074785352112677</v>
+        <v>4.412439436619718</v>
       </c>
       <c r="F32">
         <v>25.93333333</v>
@@ -1070,13 +1070,13 @@
         <v>175.86</v>
       </c>
       <c r="C33">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D33">
         <v>31.95888889</v>
       </c>
       <c r="E33">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F33">
         <v>21.26</v>
@@ -1090,13 +1090,13 @@
         <v>175.86</v>
       </c>
       <c r="C34">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D34">
         <v>31.95888889</v>
       </c>
       <c r="E34">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F34">
         <v>21.26</v>
@@ -1110,13 +1110,13 @@
         <v>175.86</v>
       </c>
       <c r="C35">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D35">
         <v>31.95888889</v>
       </c>
       <c r="E35">
-        <v>4.380323631460362</v>
+        <v>5.394960416381629</v>
       </c>
       <c r="F35">
         <v>21.26</v>
@@ -1130,13 +1130,13 @@
         <v>175.86</v>
       </c>
       <c r="C36">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D36">
         <v>31.95888889</v>
       </c>
       <c r="E36">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F36">
         <v>21.26</v>
@@ -1150,13 +1150,13 @@
         <v>175.86</v>
       </c>
       <c r="C37">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D37">
         <v>31.95888889</v>
       </c>
       <c r="E37">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F37">
         <v>21.26</v>
@@ -1170,13 +1170,13 @@
         <v>175.86</v>
       </c>
       <c r="C38">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D38">
         <v>31.95888889</v>
       </c>
       <c r="E38">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F38">
         <v>21.26</v>
@@ -1190,13 +1190,13 @@
         <v>175.86</v>
       </c>
       <c r="C39">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D39">
         <v>31.95888889</v>
       </c>
       <c r="E39">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F39">
         <v>21.26</v>
@@ -1210,13 +1210,13 @@
         <v>175.86</v>
       </c>
       <c r="C40">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D40">
         <v>31.95888889</v>
       </c>
       <c r="E40">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F40">
         <v>21.26</v>
@@ -1230,13 +1230,13 @@
         <v>175.86</v>
       </c>
       <c r="C41">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D41">
         <v>31.95888889</v>
       </c>
       <c r="E41">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F41">
         <v>21.26</v>
@@ -1250,13 +1250,13 @@
         <v>175.86</v>
       </c>
       <c r="C42">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D42">
         <v>31.95888889</v>
       </c>
       <c r="E42">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F42">
         <v>21.26</v>
@@ -1270,13 +1270,13 @@
         <v>175.86</v>
       </c>
       <c r="C43">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D43">
         <v>31.95888889</v>
       </c>
       <c r="E43">
-        <v>4.38000059536175</v>
+        <v>5.755632951116531</v>
       </c>
       <c r="F43">
         <v>21.26</v>
@@ -1290,13 +1290,13 @@
         <v>175.86</v>
       </c>
       <c r="C44">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D44">
         <v>31.95888889</v>
       </c>
       <c r="E44">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F44">
         <v>21.26</v>
@@ -1310,13 +1310,13 @@
         <v>175.86</v>
       </c>
       <c r="C45">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D45">
         <v>31.95888889</v>
       </c>
       <c r="E45">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F45">
         <v>21.26</v>
@@ -1330,13 +1330,13 @@
         <v>175.86</v>
       </c>
       <c r="C46">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D46">
         <v>31.95888889</v>
       </c>
       <c r="E46">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F46">
         <v>21.26</v>
@@ -1350,13 +1350,13 @@
         <v>175.86</v>
       </c>
       <c r="C47">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D47">
         <v>31.95888889</v>
       </c>
       <c r="E47">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F47">
         <v>21.26</v>
@@ -1370,13 +1370,13 @@
         <v>175.86</v>
       </c>
       <c r="C48">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D48">
         <v>31.95888889</v>
       </c>
       <c r="E48">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F48">
         <v>21.26</v>
@@ -1390,13 +1390,13 @@
         <v>175.86</v>
       </c>
       <c r="C49">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D49">
         <v>31.95888889</v>
       </c>
       <c r="E49">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F49">
         <v>21.26</v>
@@ -1410,13 +1410,13 @@
         <v>175.86</v>
       </c>
       <c r="C50">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D50">
         <v>31.95888889</v>
       </c>
       <c r="E50">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F50">
         <v>21.26</v>
@@ -1430,13 +1430,13 @@
         <v>175.86</v>
       </c>
       <c r="C51">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D51">
         <v>31.95888889</v>
       </c>
       <c r="E51">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F51">
         <v>21.26</v>
@@ -1450,13 +1450,13 @@
         <v>175.86</v>
       </c>
       <c r="C52">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D52">
         <v>31.95888889</v>
       </c>
       <c r="E52">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F52">
         <v>21.26</v>
@@ -1470,13 +1470,13 @@
         <v>175.86</v>
       </c>
       <c r="C53">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D53">
         <v>31.95888889</v>
       </c>
       <c r="E53">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F53">
         <v>21.26</v>
@@ -1490,13 +1490,13 @@
         <v>175.86</v>
       </c>
       <c r="C54">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D54">
         <v>31.95888889</v>
       </c>
       <c r="E54">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F54">
         <v>21.26</v>
@@ -1510,13 +1510,13 @@
         <v>175.86</v>
       </c>
       <c r="C55">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D55">
         <v>31.95888889</v>
       </c>
       <c r="E55">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F55">
         <v>21.26</v>
@@ -1530,13 +1530,13 @@
         <v>175.86</v>
       </c>
       <c r="C56">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D56">
         <v>31.95888889</v>
       </c>
       <c r="E56">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F56">
         <v>21.26</v>
@@ -1550,13 +1550,13 @@
         <v>175.86</v>
       </c>
       <c r="C57">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D57">
         <v>31.95888889</v>
       </c>
       <c r="E57">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F57">
         <v>21.26</v>
@@ -1570,13 +1570,13 @@
         <v>175.86</v>
       </c>
       <c r="C58">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D58">
         <v>31.95888889</v>
       </c>
       <c r="E58">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F58">
         <v>21.26</v>
@@ -1590,13 +1590,13 @@
         <v>175.86</v>
       </c>
       <c r="C59">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D59">
         <v>31.95888889</v>
       </c>
       <c r="E59">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F59">
         <v>21.26</v>
@@ -1610,13 +1610,13 @@
         <v>175.86</v>
       </c>
       <c r="C60">
-        <v>10.55160000000001</v>
+        <v>21.1032</v>
       </c>
       <c r="D60">
         <v>31.95888889</v>
       </c>
       <c r="E60">
-        <v>4.379161690140848</v>
+        <v>9.313149295774648</v>
       </c>
       <c r="F60">
         <v>21.26</v>
@@ -1630,13 +1630,13 @@
         <v>84.5</v>
       </c>
       <c r="C61">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D61">
         <v>32.65</v>
       </c>
       <c r="E61">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F61">
         <v>28.05</v>
@@ -1650,13 +1650,13 @@
         <v>84.5</v>
       </c>
       <c r="C62">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D62">
         <v>32.65</v>
       </c>
       <c r="E62">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F62">
         <v>28.05</v>
@@ -1670,13 +1670,13 @@
         <v>84.5</v>
       </c>
       <c r="C63">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D63">
         <v>32.65</v>
       </c>
       <c r="E63">
-        <v>2.114962600385728</v>
+        <v>4.094439964216661</v>
       </c>
       <c r="F63">
         <v>28.05</v>
@@ -1690,13 +1690,13 @@
         <v>84.5</v>
       </c>
       <c r="C64">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D64">
         <v>32.65</v>
       </c>
       <c r="E64">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F64">
         <v>28.05</v>
@@ -1710,13 +1710,13 @@
         <v>84.5</v>
       </c>
       <c r="C65">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D65">
         <v>32.65</v>
       </c>
       <c r="E65">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F65">
         <v>28.05</v>
@@ -1730,13 +1730,13 @@
         <v>84.5</v>
       </c>
       <c r="C66">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D66">
         <v>32.65</v>
       </c>
       <c r="E66">
-        <v>2.1099780096897</v>
+        <v>4.150090520292742</v>
       </c>
       <c r="F66">
         <v>28.05</v>
@@ -1750,13 +1750,13 @@
         <v>84.5</v>
       </c>
       <c r="C67">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D67">
         <v>32.65</v>
       </c>
       <c r="E67">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F67">
         <v>28.05</v>
@@ -1770,13 +1770,13 @@
         <v>84.5</v>
       </c>
       <c r="C68">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D68">
         <v>32.65</v>
       </c>
       <c r="E68">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F68">
         <v>28.05</v>
@@ -1790,13 +1790,13 @@
         <v>84.5</v>
       </c>
       <c r="C69">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D69">
         <v>32.65</v>
       </c>
       <c r="E69">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F69">
         <v>28.05</v>
@@ -1810,13 +1810,13 @@
         <v>84.5</v>
       </c>
       <c r="C70">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D70">
         <v>32.65</v>
       </c>
       <c r="E70">
-        <v>2.106891517196951</v>
+        <v>4.23591107676962</v>
       </c>
       <c r="F70">
         <v>28.05</v>
@@ -1830,13 +1830,13 @@
         <v>84.5</v>
       </c>
       <c r="C71">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D71">
         <v>32.65</v>
       </c>
       <c r="E71">
-        <v>2.130232600335908</v>
+        <v>4.044038234114896</v>
       </c>
       <c r="F71">
         <v>28.05</v>
@@ -1850,13 +1850,13 @@
         <v>84.5</v>
       </c>
       <c r="C72">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D72">
         <v>32.65</v>
       </c>
       <c r="E72">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F72">
         <v>28.05</v>
@@ -1870,13 +1870,13 @@
         <v>84.5</v>
       </c>
       <c r="C73">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D73">
         <v>32.65</v>
       </c>
       <c r="E73">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F73">
         <v>28.05</v>
@@ -1890,13 +1890,13 @@
         <v>84.5</v>
       </c>
       <c r="C74">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D74">
         <v>32.65</v>
       </c>
       <c r="E74">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F74">
         <v>28.05</v>
@@ -1910,13 +1910,13 @@
         <v>84.5</v>
       </c>
       <c r="C75">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D75">
         <v>32.65</v>
       </c>
       <c r="E75">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F75">
         <v>28.05</v>
@@ -1930,13 +1930,13 @@
         <v>84.5</v>
       </c>
       <c r="C76">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D76">
         <v>32.65</v>
       </c>
       <c r="E76">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F76">
         <v>28.05</v>
@@ -1950,13 +1950,13 @@
         <v>84.5</v>
       </c>
       <c r="C77">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D77">
         <v>32.65</v>
       </c>
       <c r="E77">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F77">
         <v>28.05</v>
@@ -1970,13 +1970,13 @@
         <v>84.5</v>
       </c>
       <c r="C78">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D78">
         <v>32.65</v>
       </c>
       <c r="E78">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F78">
         <v>28.05</v>
@@ -1990,13 +1990,13 @@
         <v>84.5</v>
       </c>
       <c r="C79">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D79">
         <v>32.65</v>
       </c>
       <c r="E79">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F79">
         <v>28.05</v>
@@ -2010,13 +2010,13 @@
         <v>84.5</v>
       </c>
       <c r="C80">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D80">
         <v>32.65</v>
       </c>
       <c r="E80">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F80">
         <v>28.05</v>
@@ -2030,13 +2030,13 @@
         <v>84.5</v>
       </c>
       <c r="C81">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D81">
         <v>32.65</v>
       </c>
       <c r="E81">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F81">
         <v>28.05</v>
@@ -2050,13 +2050,13 @@
         <v>84.5</v>
       </c>
       <c r="C82">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D82">
         <v>32.65</v>
       </c>
       <c r="E82">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F82">
         <v>28.05</v>
@@ -2070,13 +2070,13 @@
         <v>84.5</v>
       </c>
       <c r="C83">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D83">
         <v>32.65</v>
       </c>
       <c r="E83">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F83">
         <v>28.05</v>
@@ -2090,13 +2090,13 @@
         <v>84.5</v>
       </c>
       <c r="C84">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D84">
         <v>32.65</v>
       </c>
       <c r="E84">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F84">
         <v>28.05</v>
@@ -2110,13 +2110,13 @@
         <v>84.5</v>
       </c>
       <c r="C85">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D85">
         <v>32.65</v>
       </c>
       <c r="E85">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F85">
         <v>28.05</v>
@@ -2130,13 +2130,13 @@
         <v>84.5</v>
       </c>
       <c r="C86">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D86">
         <v>32.65</v>
       </c>
       <c r="E86">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F86">
         <v>28.05</v>
@@ -2150,13 +2150,13 @@
         <v>84.5</v>
       </c>
       <c r="C87">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D87">
         <v>32.65</v>
       </c>
       <c r="E87">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F87">
         <v>28.05</v>
@@ -2170,13 +2170,13 @@
         <v>84.5</v>
       </c>
       <c r="C88">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D88">
         <v>32.65</v>
       </c>
       <c r="E88">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F88">
         <v>28.05</v>
@@ -2190,13 +2190,13 @@
         <v>84.5</v>
       </c>
       <c r="C89">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D89">
         <v>32.65</v>
       </c>
       <c r="E89">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F89">
         <v>28.05</v>
@@ -2210,13 +2210,13 @@
         <v>84.5</v>
       </c>
       <c r="C90">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D90">
         <v>32.65</v>
       </c>
       <c r="E90">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F90">
         <v>28.05</v>
@@ -2230,13 +2230,13 @@
         <v>84.5</v>
       </c>
       <c r="C91">
-        <v>5.070000000000005</v>
+        <v>10.14</v>
       </c>
       <c r="D91">
         <v>32.65</v>
       </c>
       <c r="E91">
-        <v>2.104169014084509</v>
+        <v>4.474929577464788</v>
       </c>
       <c r="F91">
         <v>28.05</v>
@@ -2250,13 +2250,13 @@
         <v>28</v>
       </c>
       <c r="C92">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D92">
         <v>15.25</v>
       </c>
       <c r="E92">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F92">
         <v>9.35</v>
@@ -2270,13 +2270,13 @@
         <v>28</v>
       </c>
       <c r="C93">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D93">
         <v>15.25</v>
       </c>
       <c r="E93">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F93">
         <v>9.35</v>
@@ -2290,13 +2290,13 @@
         <v>28</v>
       </c>
       <c r="C94">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D94">
         <v>15.25</v>
       </c>
       <c r="E94">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F94">
         <v>9.35</v>
@@ -2310,13 +2310,13 @@
         <v>28</v>
       </c>
       <c r="C95">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D95">
         <v>15.25</v>
       </c>
       <c r="E95">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F95">
         <v>9.35</v>
@@ -2330,13 +2330,13 @@
         <v>28</v>
       </c>
       <c r="C96">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D96">
         <v>15.25</v>
       </c>
       <c r="E96">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F96">
         <v>9.35</v>
@@ -2350,13 +2350,13 @@
         <v>28</v>
       </c>
       <c r="C97">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D97">
         <v>15.25</v>
       </c>
       <c r="E97">
-        <v>0.7183803089391678</v>
+        <v>3.59315986544245</v>
       </c>
       <c r="F97">
         <v>9.35</v>
@@ -2370,13 +2370,13 @@
         <v>28</v>
       </c>
       <c r="C98">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D98">
         <v>15.25</v>
       </c>
       <c r="E98">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F98">
         <v>9.35</v>
@@ -2390,13 +2390,13 @@
         <v>28</v>
       </c>
       <c r="C99">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D99">
         <v>15.25</v>
       </c>
       <c r="E99">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F99">
         <v>9.35</v>
@@ -2410,13 +2410,13 @@
         <v>28</v>
       </c>
       <c r="C100">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D100">
         <v>15.25</v>
       </c>
       <c r="E100">
-        <v>0.7075900271717369</v>
+        <v>3.287508364371356</v>
       </c>
       <c r="F100">
         <v>9.35</v>
@@ -2430,13 +2430,13 @@
         <v>28</v>
       </c>
       <c r="C101">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D101">
         <v>15.25</v>
       </c>
       <c r="E101">
-        <v>0.7062129713527046</v>
+        <v>3.212200066200183</v>
       </c>
       <c r="F101">
         <v>9.35</v>
@@ -2450,13 +2450,13 @@
         <v>28</v>
       </c>
       <c r="C102">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D102">
         <v>15.25</v>
       </c>
       <c r="E102">
-        <v>0.8030334494588035</v>
+        <v>6.219303098097431</v>
       </c>
       <c r="F102">
         <v>9.35</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="C103">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D103">
         <v>15.25</v>
       </c>
       <c r="E103">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F103">
         <v>9.35</v>
@@ -2490,13 +2490,13 @@
         <v>28</v>
       </c>
       <c r="C104">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D104">
         <v>15.25</v>
       </c>
       <c r="E104">
-        <v>0.709653872192095</v>
+        <v>3.376860229528264</v>
       </c>
       <c r="F104">
         <v>9.35</v>
@@ -2510,13 +2510,13 @@
         <v>28</v>
       </c>
       <c r="C105">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D105">
         <v>15.25</v>
       </c>
       <c r="E105">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F105">
         <v>9.35</v>
@@ -2530,13 +2530,13 @@
         <v>28</v>
       </c>
       <c r="C106">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D106">
         <v>15.25</v>
       </c>
       <c r="E106">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F106">
         <v>9.35</v>
@@ -2550,13 +2550,13 @@
         <v>28</v>
       </c>
       <c r="C107">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D107">
         <v>15.25</v>
       </c>
       <c r="E107">
-        <v>0.6993137473776548</v>
+        <v>2.329213807123653</v>
       </c>
       <c r="F107">
         <v>9.35</v>
@@ -2570,13 +2570,13 @@
         <v>28</v>
       </c>
       <c r="C108">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D108">
         <v>15.25</v>
       </c>
       <c r="E108">
-        <v>0.8514882674287861</v>
+        <v>5.558900299690725</v>
       </c>
       <c r="F108">
         <v>9.35</v>
@@ -2590,13 +2590,13 @@
         <v>28</v>
       </c>
       <c r="C109">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D109">
         <v>15.25</v>
       </c>
       <c r="E109">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F109">
         <v>9.35</v>
@@ -2610,13 +2610,13 @@
         <v>28</v>
       </c>
       <c r="C110">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D110">
         <v>15.25</v>
       </c>
       <c r="E110">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F110">
         <v>9.35</v>
@@ -2630,13 +2630,13 @@
         <v>28</v>
       </c>
       <c r="C111">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D111">
         <v>15.25</v>
       </c>
       <c r="E111">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F111">
         <v>9.35</v>
@@ -2650,13 +2650,13 @@
         <v>28</v>
       </c>
       <c r="C112">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D112">
         <v>15.25</v>
       </c>
       <c r="E112">
-        <v>0.6986225438943512</v>
+        <v>2.118309090646405</v>
       </c>
       <c r="F112">
         <v>9.35</v>
@@ -2670,13 +2670,13 @@
         <v>28</v>
       </c>
       <c r="C113">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D113">
         <v>15.25</v>
       </c>
       <c r="E113">
-        <v>0.6993137473776548</v>
+        <v>2.329213807123653</v>
       </c>
       <c r="F113">
         <v>9.35</v>
@@ -2690,13 +2690,13 @@
         <v>28</v>
       </c>
       <c r="C114">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D114">
         <v>15.25</v>
       </c>
       <c r="E114">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F114">
         <v>9.35</v>
@@ -2710,13 +2710,13 @@
         <v>28</v>
       </c>
       <c r="C115">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D115">
         <v>15.25</v>
       </c>
       <c r="E115">
-        <v>0.7013859586291442</v>
+        <v>2.749643308414402</v>
       </c>
       <c r="F115">
         <v>9.35</v>
@@ -2730,13 +2730,13 @@
         <v>28</v>
       </c>
       <c r="C116">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D116">
         <v>15.25</v>
       </c>
       <c r="E116">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F116">
         <v>9.35</v>
@@ -2750,13 +2750,13 @@
         <v>28</v>
       </c>
       <c r="C117">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D117">
         <v>15.25</v>
       </c>
       <c r="E117">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F117">
         <v>9.35</v>
@@ -2770,13 +2770,13 @@
         <v>28</v>
       </c>
       <c r="C118">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D118">
         <v>15.25</v>
       </c>
       <c r="E118">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F118">
         <v>9.35</v>
@@ -2790,13 +2790,13 @@
         <v>28</v>
       </c>
       <c r="C119">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D119">
         <v>15.25</v>
       </c>
       <c r="E119">
-        <v>0.6979311070144509</v>
+        <v>1.84646682526339</v>
       </c>
       <c r="F119">
         <v>9.35</v>
@@ -2810,13 +2810,13 @@
         <v>28</v>
       </c>
       <c r="C120">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D120">
         <v>15.25</v>
       </c>
       <c r="E120">
-        <v>0.6972394366197189</v>
+        <v>1.482816901408451</v>
       </c>
       <c r="F120">
         <v>9.35</v>
@@ -2830,13 +2830,13 @@
         <v>28</v>
       </c>
       <c r="C121">
-        <v>1.680000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="D121">
         <v>15.25</v>
       </c>
       <c r="E121">
-        <v>0.8658846414633988</v>
+        <v>5.483162257366794</v>
       </c>
       <c r="F121">
         <v>9.35</v>
@@ -2850,13 +2850,13 @@
         <v>105.83</v>
       </c>
       <c r="C122">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D122">
         <v>23.47777778</v>
       </c>
       <c r="E122">
-        <v>2.786962178381825</v>
+        <v>11.6528112470623</v>
       </c>
       <c r="F122">
         <v>15.12222222</v>
@@ -2870,13 +2870,13 @@
         <v>105.83</v>
       </c>
       <c r="C123">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D123">
         <v>23.47777778</v>
       </c>
       <c r="E123">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F123">
         <v>15.12222222</v>
@@ -2890,13 +2890,13 @@
         <v>105.83</v>
       </c>
       <c r="C124">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D124">
         <v>23.47777778</v>
       </c>
       <c r="E124">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F124">
         <v>15.12222222</v>
@@ -2910,13 +2910,13 @@
         <v>105.83</v>
       </c>
       <c r="C125">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D125">
         <v>23.47777778</v>
       </c>
       <c r="E125">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F125">
         <v>15.12222222</v>
@@ -2930,13 +2930,13 @@
         <v>105.83</v>
       </c>
       <c r="C126">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D126">
         <v>23.47777778</v>
       </c>
       <c r="E126">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F126">
         <v>15.12222222</v>
@@ -2950,13 +2950,13 @@
         <v>105.83</v>
       </c>
       <c r="C127">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D127">
         <v>23.47777778</v>
       </c>
       <c r="E127">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F127">
         <v>15.12222222</v>
@@ -2970,13 +2970,13 @@
         <v>105.83</v>
       </c>
       <c r="C128">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D128">
         <v>23.47777778</v>
       </c>
       <c r="E128">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F128">
         <v>15.12222222</v>
@@ -2990,13 +2990,13 @@
         <v>105.83</v>
       </c>
       <c r="C129">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D129">
         <v>23.47777778</v>
       </c>
       <c r="E129">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F129">
         <v>15.12222222</v>
@@ -3010,13 +3010,13 @@
         <v>105.83</v>
       </c>
       <c r="C130">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D130">
         <v>23.47777778</v>
       </c>
       <c r="E130">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F130">
         <v>15.12222222</v>
@@ -3030,13 +3030,13 @@
         <v>105.83</v>
       </c>
       <c r="C131">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D131">
         <v>23.47777778</v>
       </c>
       <c r="E131">
-        <v>2.645260948966398</v>
+        <v>4.285083194353038</v>
       </c>
       <c r="F131">
         <v>15.12222222</v>
@@ -3050,13 +3050,13 @@
         <v>105.83</v>
       </c>
       <c r="C132">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D132">
         <v>23.47777778</v>
       </c>
       <c r="E132">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F132">
         <v>15.12222222</v>
@@ -3070,13 +3070,13 @@
         <v>105.83</v>
       </c>
       <c r="C133">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D133">
         <v>23.47777778</v>
       </c>
       <c r="E133">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F133">
         <v>15.12222222</v>
@@ -3090,13 +3090,13 @@
         <v>105.83</v>
       </c>
       <c r="C134">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D134">
         <v>23.47777778</v>
       </c>
       <c r="E134">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F134">
         <v>15.12222222</v>
@@ -3110,13 +3110,13 @@
         <v>105.83</v>
       </c>
       <c r="C135">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D135">
         <v>23.47777778</v>
       </c>
       <c r="E135">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F135">
         <v>15.12222222</v>
@@ -3130,13 +3130,13 @@
         <v>105.83</v>
       </c>
       <c r="C136">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D136">
         <v>23.47777778</v>
       </c>
       <c r="E136">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F136">
         <v>15.12222222</v>
@@ -3150,13 +3150,13 @@
         <v>105.83</v>
       </c>
       <c r="C137">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D137">
         <v>23.47777778</v>
       </c>
       <c r="E137">
-        <v>2.850096722397702</v>
+        <v>8.010507352937509</v>
       </c>
       <c r="F137">
         <v>15.12222222</v>
@@ -3170,13 +3170,13 @@
         <v>105.83</v>
       </c>
       <c r="C138">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D138">
         <v>23.47777778</v>
       </c>
       <c r="E138">
-        <v>2.799706831300896</v>
+        <v>11.14277597372601</v>
       </c>
       <c r="F138">
         <v>15.12222222</v>
@@ -3190,13 +3190,13 @@
         <v>105.83</v>
       </c>
       <c r="C139">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D139">
         <v>23.47777778</v>
       </c>
       <c r="E139">
-        <v>2.783046775006067</v>
+        <v>11.64524047782308</v>
       </c>
       <c r="F139">
         <v>15.12222222</v>
@@ -3210,13 +3210,13 @@
         <v>105.83</v>
       </c>
       <c r="C140">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D140">
         <v>23.47777778</v>
       </c>
       <c r="E140">
-        <v>2.8017010725287</v>
+        <v>9.358098767475232</v>
       </c>
       <c r="F140">
         <v>15.12222222</v>
@@ -3230,13 +3230,13 @@
         <v>105.83</v>
       </c>
       <c r="C141">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D141">
         <v>23.47777778</v>
       </c>
       <c r="E141">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F141">
         <v>15.12222222</v>
@@ -3250,13 +3250,13 @@
         <v>105.83</v>
       </c>
       <c r="C142">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D142">
         <v>23.47777778</v>
       </c>
       <c r="E142">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F142">
         <v>15.12222222</v>
@@ -3270,13 +3270,13 @@
         <v>105.83</v>
       </c>
       <c r="C143">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D143">
         <v>23.47777778</v>
       </c>
       <c r="E143">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F143">
         <v>15.12222222</v>
@@ -3290,13 +3290,13 @@
         <v>105.83</v>
       </c>
       <c r="C144">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D144">
         <v>23.47777778</v>
       </c>
       <c r="E144">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F144">
         <v>15.12222222</v>
@@ -3310,13 +3310,13 @@
         <v>105.83</v>
       </c>
       <c r="C145">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D145">
         <v>23.47777778</v>
       </c>
       <c r="E145">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F145">
         <v>15.12222222</v>
@@ -3330,13 +3330,13 @@
         <v>105.83</v>
       </c>
       <c r="C146">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D146">
         <v>23.47777778</v>
       </c>
       <c r="E146">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F146">
         <v>15.12222222</v>
@@ -3350,13 +3350,13 @@
         <v>105.83</v>
       </c>
       <c r="C147">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D147">
         <v>23.47777778</v>
       </c>
       <c r="E147">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F147">
         <v>15.12222222</v>
@@ -3370,13 +3370,13 @@
         <v>105.83</v>
       </c>
       <c r="C148">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D148">
         <v>23.47777778</v>
       </c>
       <c r="E148">
-        <v>2.637864681627307</v>
+        <v>4.735331483442131</v>
       </c>
       <c r="F148">
         <v>15.12222222</v>
@@ -3390,13 +3390,13 @@
         <v>105.83</v>
       </c>
       <c r="C149">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D149">
         <v>23.47777778</v>
       </c>
       <c r="E149">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F149">
         <v>15.12222222</v>
@@ -3410,13 +3410,13 @@
         <v>105.83</v>
       </c>
       <c r="C150">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D150">
         <v>23.47777778</v>
       </c>
       <c r="E150">
-        <v>2.641214356278876</v>
+        <v>4.429033320571529</v>
       </c>
       <c r="F150">
         <v>15.12222222</v>
@@ -3430,13 +3430,13 @@
         <v>105.83</v>
       </c>
       <c r="C151">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D151">
         <v>23.47777778</v>
       </c>
       <c r="E151">
-        <v>2.63531605633803</v>
+        <v>5.604518309859155</v>
       </c>
       <c r="F151">
         <v>15.12222222</v>
@@ -3450,13 +3450,13 @@
         <v>105.83</v>
       </c>
       <c r="C152">
-        <v>6.349800000000005</v>
+        <v>12.6996</v>
       </c>
       <c r="D152">
         <v>23.47777778</v>
       </c>
       <c r="E152">
-        <v>2.806953083803255</v>
+        <v>9.234841805513062</v>
       </c>
       <c r="F152">
         <v>15.12222222</v>
@@ -3470,13 +3470,13 @@
         <v>58.91</v>
       </c>
       <c r="C153">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D153">
         <v>11.475</v>
       </c>
       <c r="E153">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F153">
         <v>12.57625</v>
@@ -3490,13 +3490,13 @@
         <v>58.91</v>
       </c>
       <c r="C154">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D154">
         <v>11.475</v>
       </c>
       <c r="E154">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F154">
         <v>12.57625</v>
@@ -3510,13 +3510,13 @@
         <v>58.91</v>
       </c>
       <c r="C155">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D155">
         <v>11.475</v>
       </c>
       <c r="E155">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F155">
         <v>12.57625</v>
@@ -3530,13 +3530,13 @@
         <v>58.91</v>
       </c>
       <c r="C156">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D156">
         <v>11.475</v>
       </c>
       <c r="E156">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F156">
         <v>12.57625</v>
@@ -3550,13 +3550,13 @@
         <v>58.91</v>
       </c>
       <c r="C157">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D157">
         <v>11.475</v>
       </c>
       <c r="E157">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F157">
         <v>12.57625</v>
@@ -3570,13 +3570,13 @@
         <v>58.91</v>
       </c>
       <c r="C158">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D158">
         <v>11.475</v>
       </c>
       <c r="E158">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F158">
         <v>12.57625</v>
@@ -3590,13 +3590,13 @@
         <v>58.91</v>
       </c>
       <c r="C159">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D159">
         <v>11.475</v>
       </c>
       <c r="E159">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F159">
         <v>12.57625</v>
@@ -3610,13 +3610,13 @@
         <v>58.91</v>
       </c>
       <c r="C160">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D160">
         <v>11.475</v>
       </c>
       <c r="E160">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F160">
         <v>12.57625</v>
@@ -3630,13 +3630,13 @@
         <v>58.91</v>
       </c>
       <c r="C161">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D161">
         <v>11.475</v>
       </c>
       <c r="E161">
-        <v>1.569508286053173</v>
+        <v>3.940404152544655</v>
       </c>
       <c r="F161">
         <v>12.57625</v>
@@ -3650,13 +3650,13 @@
         <v>58.91</v>
       </c>
       <c r="C162">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D162">
         <v>11.475</v>
       </c>
       <c r="E162">
-        <v>1.511800237047347</v>
+        <v>3.897743767678237</v>
       </c>
       <c r="F162">
         <v>12.57625</v>
@@ -3670,13 +3670,13 @@
         <v>58.91</v>
       </c>
       <c r="C163">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D163">
         <v>11.475</v>
       </c>
       <c r="E163">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F163">
         <v>12.57625</v>
@@ -3690,13 +3690,13 @@
         <v>58.91</v>
       </c>
       <c r="C164">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D164">
         <v>11.475</v>
       </c>
       <c r="E164">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F164">
         <v>12.57625</v>
@@ -3710,13 +3710,13 @@
         <v>58.91</v>
       </c>
       <c r="C165">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D165">
         <v>11.475</v>
       </c>
       <c r="E165">
-        <v>1.46918770967314</v>
+        <v>3.474612670673543</v>
       </c>
       <c r="F165">
         <v>12.57625</v>
@@ -3730,13 +3730,13 @@
         <v>58.91</v>
       </c>
       <c r="C166">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D166">
         <v>11.475</v>
       </c>
       <c r="E166">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F166">
         <v>12.57625</v>
@@ -3750,13 +3750,13 @@
         <v>58.91</v>
       </c>
       <c r="C167">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D167">
         <v>11.475</v>
       </c>
       <c r="E167">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F167">
         <v>12.57625</v>
@@ -3770,13 +3770,13 @@
         <v>58.91</v>
       </c>
       <c r="C168">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D168">
         <v>11.475</v>
       </c>
       <c r="E168">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F168">
         <v>12.57625</v>
@@ -3790,13 +3790,13 @@
         <v>58.91</v>
       </c>
       <c r="C169">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D169">
         <v>11.475</v>
       </c>
       <c r="E169">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F169">
         <v>12.57625</v>
@@ -3810,13 +3810,13 @@
         <v>58.91</v>
       </c>
       <c r="C170">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D170">
         <v>11.475</v>
       </c>
       <c r="E170">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F170">
         <v>12.57625</v>
@@ -3830,13 +3830,13 @@
         <v>58.91</v>
       </c>
       <c r="C171">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D171">
         <v>11.475</v>
       </c>
       <c r="E171">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F171">
         <v>12.57625</v>
@@ -3850,13 +3850,13 @@
         <v>58.91</v>
       </c>
       <c r="C172">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D172">
         <v>11.475</v>
       </c>
       <c r="E172">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F172">
         <v>12.57625</v>
@@ -3870,13 +3870,13 @@
         <v>58.91</v>
       </c>
       <c r="C173">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D173">
         <v>11.475</v>
       </c>
       <c r="E173">
-        <v>1.46918770967314</v>
+        <v>3.474612670673543</v>
       </c>
       <c r="F173">
         <v>12.57625</v>
@@ -3890,13 +3890,13 @@
         <v>58.91</v>
       </c>
       <c r="C174">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D174">
         <v>11.475</v>
       </c>
       <c r="E174">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F174">
         <v>12.57625</v>
@@ -3910,13 +3910,13 @@
         <v>58.91</v>
       </c>
       <c r="C175">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D175">
         <v>11.475</v>
       </c>
       <c r="E175">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F175">
         <v>12.57625</v>
@@ -3930,13 +3930,13 @@
         <v>58.91</v>
       </c>
       <c r="C176">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D176">
         <v>11.475</v>
       </c>
       <c r="E176">
-        <v>1.468065219843824</v>
+        <v>3.341972520539701</v>
       </c>
       <c r="F176">
         <v>12.57625</v>
@@ -3950,13 +3950,13 @@
         <v>58.91</v>
       </c>
       <c r="C177">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D177">
         <v>11.475</v>
       </c>
       <c r="E177">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F177">
         <v>12.57625</v>
@@ -3970,13 +3970,13 @@
         <v>58.91</v>
       </c>
       <c r="C178">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D178">
         <v>11.475</v>
       </c>
       <c r="E178">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F178">
         <v>12.57625</v>
@@ -3990,13 +3990,13 @@
         <v>58.91</v>
       </c>
       <c r="C179">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D179">
         <v>11.475</v>
       </c>
       <c r="E179">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F179">
         <v>12.57625</v>
@@ -4010,13 +4010,13 @@
         <v>58.91</v>
       </c>
       <c r="C180">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D180">
         <v>11.475</v>
       </c>
       <c r="E180">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F180">
         <v>12.57625</v>
@@ -4030,13 +4030,13 @@
         <v>58.91</v>
       </c>
       <c r="C181">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D181">
         <v>11.475</v>
       </c>
       <c r="E181">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F181">
         <v>12.57625</v>
@@ -4050,13 +4050,13 @@
         <v>58.91</v>
       </c>
       <c r="C182">
-        <v>3.534600000000003</v>
+        <v>7.069199999999999</v>
       </c>
       <c r="D182">
         <v>11.475</v>
       </c>
       <c r="E182">
-        <v>1.466941971830987</v>
+        <v>3.119740845070423</v>
       </c>
       <c r="F182">
         <v>12.57625</v>
@@ -4070,13 +4070,13 @@
         <v>113.05</v>
       </c>
       <c r="C183">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D183">
         <v>18</v>
       </c>
       <c r="E183">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F183">
         <v>15.95</v>
@@ -4090,13 +4090,13 @@
         <v>113.05</v>
       </c>
       <c r="C184">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D184">
         <v>18</v>
       </c>
       <c r="E184">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F184">
         <v>15.95</v>
@@ -4110,13 +4110,13 @@
         <v>113.05</v>
       </c>
       <c r="C185">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D185">
         <v>18</v>
       </c>
       <c r="E185">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F185">
         <v>15.95</v>
@@ -4130,13 +4130,13 @@
         <v>113.05</v>
       </c>
       <c r="C186">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D186">
         <v>18</v>
       </c>
       <c r="E186">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F186">
         <v>15.95</v>
@@ -4150,13 +4150,13 @@
         <v>113.05</v>
       </c>
       <c r="C187">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D187">
         <v>18</v>
       </c>
       <c r="E187">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F187">
         <v>15.95</v>
@@ -4170,13 +4170,13 @@
         <v>113.05</v>
       </c>
       <c r="C188">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D188">
         <v>18</v>
       </c>
       <c r="E188">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F188">
         <v>15.95</v>
@@ -4190,13 +4190,13 @@
         <v>113.05</v>
       </c>
       <c r="C189">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D189">
         <v>18</v>
       </c>
       <c r="E189">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F189">
         <v>15.95</v>
@@ -4210,13 +4210,13 @@
         <v>113.05</v>
       </c>
       <c r="C190">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D190">
         <v>18</v>
       </c>
       <c r="E190">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F190">
         <v>15.95</v>
@@ -4230,13 +4230,13 @@
         <v>113.05</v>
       </c>
       <c r="C191">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D191">
         <v>18</v>
       </c>
       <c r="E191">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F191">
         <v>15.95</v>
@@ -4250,13 +4250,13 @@
         <v>113.05</v>
       </c>
       <c r="C192">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D192">
         <v>18</v>
       </c>
       <c r="E192">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F192">
         <v>15.95</v>
@@ -4270,13 +4270,13 @@
         <v>113.05</v>
       </c>
       <c r="C193">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D193">
         <v>18</v>
       </c>
       <c r="E193">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F193">
         <v>15.95</v>
@@ -4290,13 +4290,13 @@
         <v>113.05</v>
       </c>
       <c r="C194">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D194">
         <v>18</v>
       </c>
       <c r="E194">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F194">
         <v>15.95</v>
@@ -4310,13 +4310,13 @@
         <v>113.05</v>
       </c>
       <c r="C195">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D195">
         <v>18</v>
       </c>
       <c r="E195">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F195">
         <v>15.95</v>
@@ -4330,13 +4330,13 @@
         <v>113.05</v>
       </c>
       <c r="C196">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D196">
         <v>18</v>
       </c>
       <c r="E196">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F196">
         <v>15.95</v>
@@ -4350,13 +4350,13 @@
         <v>113.05</v>
       </c>
       <c r="C197">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D197">
         <v>18</v>
       </c>
       <c r="E197">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F197">
         <v>15.95</v>
@@ -4370,13 +4370,13 @@
         <v>113.05</v>
       </c>
       <c r="C198">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D198">
         <v>18</v>
       </c>
       <c r="E198">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F198">
         <v>15.95</v>
@@ -4390,13 +4390,13 @@
         <v>113.05</v>
       </c>
       <c r="C199">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D199">
         <v>18</v>
       </c>
       <c r="E199">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F199">
         <v>15.95</v>
@@ -4410,13 +4410,13 @@
         <v>113.05</v>
       </c>
       <c r="C200">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D200">
         <v>18</v>
       </c>
       <c r="E200">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F200">
         <v>15.95</v>
@@ -4430,13 +4430,13 @@
         <v>113.05</v>
       </c>
       <c r="C201">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D201">
         <v>18</v>
       </c>
       <c r="E201">
-        <v>2.81937787559938</v>
+        <v>4.627905383056246</v>
       </c>
       <c r="F201">
         <v>15.95</v>
@@ -4450,13 +4450,13 @@
         <v>113.05</v>
       </c>
       <c r="C202">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D202">
         <v>18</v>
       </c>
       <c r="E202">
-        <v>2.81710715785378</v>
+        <v>4.986936648212833</v>
       </c>
       <c r="F202">
         <v>15.95</v>
@@ -4470,13 +4470,13 @@
         <v>113.05</v>
       </c>
       <c r="C203">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D203">
         <v>18</v>
       </c>
       <c r="E203">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F203">
         <v>15.95</v>
@@ -4490,13 +4490,13 @@
         <v>113.05</v>
       </c>
       <c r="C204">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D204">
         <v>18</v>
       </c>
       <c r="E204">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F204">
         <v>15.95</v>
@@ -4510,13 +4510,13 @@
         <v>113.05</v>
       </c>
       <c r="C205">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D205">
         <v>18</v>
       </c>
       <c r="E205">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F205">
         <v>15.95</v>
@@ -4530,13 +4530,13 @@
         <v>113.05</v>
       </c>
       <c r="C206">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D206">
         <v>18</v>
       </c>
       <c r="E206">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F206">
         <v>15.95</v>
@@ -4550,13 +4550,13 @@
         <v>113.05</v>
       </c>
       <c r="C207">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D207">
         <v>18</v>
       </c>
       <c r="E207">
-        <v>2.831533504183554</v>
+        <v>4.212006641808494</v>
       </c>
       <c r="F207">
         <v>15.95</v>
@@ -4570,13 +4570,13 @@
         <v>113.05</v>
       </c>
       <c r="C208">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D208">
         <v>18</v>
       </c>
       <c r="E208">
-        <v>2.817773901319909</v>
+        <v>4.84515572957906</v>
       </c>
       <c r="F208">
         <v>15.95</v>
@@ -4590,13 +4590,13 @@
         <v>113.05</v>
       </c>
       <c r="C209">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D209">
         <v>18</v>
       </c>
       <c r="E209">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F209">
         <v>15.95</v>
@@ -4610,13 +4610,13 @@
         <v>113.05</v>
       </c>
       <c r="C210">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D210">
         <v>18</v>
       </c>
       <c r="E210">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F210">
         <v>15.95</v>
@@ -4630,13 +4630,13 @@
         <v>113.05</v>
       </c>
       <c r="C211">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D211">
         <v>18</v>
       </c>
       <c r="E211">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F211">
         <v>15.95</v>
@@ -4650,13 +4650,13 @@
         <v>113.05</v>
       </c>
       <c r="C212">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D212">
         <v>18</v>
       </c>
       <c r="E212">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F212">
         <v>15.95</v>
@@ -4670,13 +4670,13 @@
         <v>113.05</v>
       </c>
       <c r="C213">
-        <v>6.783000000000006</v>
+        <v>13.566</v>
       </c>
       <c r="D213">
         <v>18</v>
       </c>
       <c r="E213">
-        <v>2.815104225352115</v>
+        <v>5.986873239436621</v>
       </c>
       <c r="F213">
         <v>15.95</v>
@@ -4690,13 +4690,13 @@
         <v>123.5</v>
       </c>
       <c r="C214">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D214">
         <v>18.75</v>
       </c>
       <c r="E214">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F214">
         <v>12.75</v>
@@ -4710,13 +4710,13 @@
         <v>123.5</v>
       </c>
       <c r="C215">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D215">
         <v>18.75</v>
       </c>
       <c r="E215">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F215">
         <v>12.75</v>
@@ -4730,13 +4730,13 @@
         <v>123.5</v>
       </c>
       <c r="C216">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D216">
         <v>18.75</v>
       </c>
       <c r="E216">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F216">
         <v>12.75</v>
@@ -4750,13 +4750,13 @@
         <v>123.5</v>
       </c>
       <c r="C217">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D217">
         <v>18.75</v>
       </c>
       <c r="E217">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F217">
         <v>12.75</v>
@@ -4770,13 +4770,13 @@
         <v>123.5</v>
       </c>
       <c r="C218">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D218">
         <v>18.75</v>
       </c>
       <c r="E218">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F218">
         <v>12.75</v>
@@ -4790,13 +4790,13 @@
         <v>123.5</v>
       </c>
       <c r="C219">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D219">
         <v>18.75</v>
       </c>
       <c r="E219">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F219">
         <v>12.75</v>
@@ -4810,13 +4810,13 @@
         <v>123.5</v>
       </c>
       <c r="C220">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D220">
         <v>18.75</v>
       </c>
       <c r="E220">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F220">
         <v>12.75</v>
@@ -4830,13 +4830,13 @@
         <v>123.5</v>
       </c>
       <c r="C221">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D221">
         <v>18.75</v>
       </c>
       <c r="E221">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F221">
         <v>12.75</v>
@@ -4850,13 +4850,13 @@
         <v>123.5</v>
       </c>
       <c r="C222">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D222">
         <v>18.75</v>
       </c>
       <c r="E222">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F222">
         <v>12.75</v>
@@ -4870,13 +4870,13 @@
         <v>123.5</v>
       </c>
       <c r="C223">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D223">
         <v>18.75</v>
       </c>
       <c r="E223">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F223">
         <v>12.75</v>
@@ -4890,13 +4890,13 @@
         <v>123.5</v>
       </c>
       <c r="C224">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D224">
         <v>18.75</v>
       </c>
       <c r="E224">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F224">
         <v>12.75</v>
@@ -4910,13 +4910,13 @@
         <v>123.5</v>
       </c>
       <c r="C225">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D225">
         <v>18.75</v>
       </c>
       <c r="E225">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F225">
         <v>12.75</v>
@@ -4930,13 +4930,13 @@
         <v>123.5</v>
       </c>
       <c r="C226">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D226">
         <v>18.75</v>
       </c>
       <c r="E226">
-        <v>3.07561411374341</v>
+        <v>6.173294781756352</v>
       </c>
       <c r="F226">
         <v>12.75</v>
@@ -4950,13 +4950,13 @@
         <v>123.5</v>
       </c>
       <c r="C227">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D227">
         <v>18.75</v>
       </c>
       <c r="E227">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F227">
         <v>12.75</v>
@@ -4970,13 +4970,13 @@
         <v>123.5</v>
       </c>
       <c r="C228">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D228">
         <v>18.75</v>
       </c>
       <c r="E228">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F228">
         <v>12.75</v>
@@ -4990,13 +4990,13 @@
         <v>123.5</v>
       </c>
       <c r="C229">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D229">
         <v>18.75</v>
       </c>
       <c r="E229">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F229">
         <v>12.75</v>
@@ -5010,13 +5010,13 @@
         <v>123.5</v>
       </c>
       <c r="C230">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D230">
         <v>18.75</v>
       </c>
       <c r="E230">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F230">
         <v>12.75</v>
@@ -5030,13 +5030,13 @@
         <v>123.5</v>
       </c>
       <c r="C231">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D231">
         <v>18.75</v>
       </c>
       <c r="E231">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F231">
         <v>12.75</v>
@@ -5050,13 +5050,13 @@
         <v>123.5</v>
       </c>
       <c r="C232">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D232">
         <v>18.75</v>
       </c>
       <c r="E232">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F232">
         <v>12.75</v>
@@ -5070,13 +5070,13 @@
         <v>123.5</v>
       </c>
       <c r="C233">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D233">
         <v>18.75</v>
       </c>
       <c r="E233">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F233">
         <v>12.75</v>
@@ -5090,13 +5090,13 @@
         <v>123.5</v>
       </c>
       <c r="C234">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D234">
         <v>18.75</v>
       </c>
       <c r="E234">
-        <v>3.076194160062935</v>
+        <v>5.686117937260398</v>
       </c>
       <c r="F234">
         <v>12.75</v>
@@ -5110,13 +5110,13 @@
         <v>123.5</v>
       </c>
       <c r="C235">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D235">
         <v>18.75</v>
       </c>
       <c r="E235">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F235">
         <v>12.75</v>
@@ -5130,13 +5130,13 @@
         <v>123.5</v>
       </c>
       <c r="C236">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D236">
         <v>18.75</v>
       </c>
       <c r="E236">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F236">
         <v>12.75</v>
@@ -5150,13 +5150,13 @@
         <v>123.5</v>
       </c>
       <c r="C237">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D237">
         <v>18.75</v>
       </c>
       <c r="E237">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F237">
         <v>12.75</v>
@@ -5170,13 +5170,13 @@
         <v>123.5</v>
       </c>
       <c r="C238">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D238">
         <v>18.75</v>
       </c>
       <c r="E238">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F238">
         <v>12.75</v>
@@ -5190,13 +5190,13 @@
         <v>123.5</v>
       </c>
       <c r="C239">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D239">
         <v>18.75</v>
       </c>
       <c r="E239">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F239">
         <v>12.75</v>
@@ -5210,13 +5210,13 @@
         <v>123.5</v>
       </c>
       <c r="C240">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D240">
         <v>18.75</v>
       </c>
       <c r="E240">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F240">
         <v>12.75</v>
@@ -5230,13 +5230,13 @@
         <v>123.5</v>
       </c>
       <c r="C241">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D241">
         <v>18.75</v>
       </c>
       <c r="E241">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F241">
         <v>12.75</v>
@@ -5250,13 +5250,13 @@
         <v>123.5</v>
       </c>
       <c r="C242">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D242">
         <v>18.75</v>
       </c>
       <c r="E242">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F242">
         <v>12.75</v>
@@ -5270,13 +5270,13 @@
         <v>123.5</v>
       </c>
       <c r="C243">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D243">
         <v>18.75</v>
       </c>
       <c r="E243">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F243">
         <v>12.75</v>
@@ -5290,13 +5290,13 @@
         <v>123.5</v>
       </c>
       <c r="C244">
-        <v>7.410000000000005</v>
+        <v>14.82</v>
       </c>
       <c r="D244">
         <v>18.75</v>
       </c>
       <c r="E244">
-        <v>3.075323943661974</v>
+        <v>6.540281690140846</v>
       </c>
       <c r="F244">
         <v>12.75</v>
@@ -5310,13 +5310,13 @@
         <v>60.35</v>
       </c>
       <c r="C245">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D245">
         <v>15.122</v>
       </c>
       <c r="E245">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F245">
         <v>13.31666667</v>
@@ -5330,13 +5330,13 @@
         <v>60.35</v>
       </c>
       <c r="C246">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D246">
         <v>15.122</v>
       </c>
       <c r="E246">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F246">
         <v>13.31666667</v>
@@ -5350,13 +5350,13 @@
         <v>60.35</v>
       </c>
       <c r="C247">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D247">
         <v>15.122</v>
       </c>
       <c r="E247">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F247">
         <v>13.31666667</v>
@@ -5370,13 +5370,13 @@
         <v>60.35</v>
       </c>
       <c r="C248">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D248">
         <v>15.122</v>
       </c>
       <c r="E248">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F248">
         <v>13.31666667</v>
@@ -5390,13 +5390,13 @@
         <v>60.35</v>
       </c>
       <c r="C249">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D249">
         <v>15.122</v>
       </c>
       <c r="E249">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F249">
         <v>13.31666667</v>
@@ -5410,13 +5410,13 @@
         <v>60.35</v>
       </c>
       <c r="C250">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D250">
         <v>15.122</v>
       </c>
       <c r="E250">
-        <v>1.503911141984466</v>
+        <v>3.398979163666402</v>
       </c>
       <c r="F250">
         <v>13.31666667</v>
@@ -5430,13 +5430,13 @@
         <v>60.35</v>
       </c>
       <c r="C251">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D251">
         <v>15.122</v>
       </c>
       <c r="E251">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F251">
         <v>13.31666667</v>
@@ -5450,13 +5450,13 @@
         <v>60.35</v>
       </c>
       <c r="C252">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D252">
         <v>15.122</v>
       </c>
       <c r="E252">
-        <v>1.507794237564439</v>
+        <v>3.680921741904381</v>
       </c>
       <c r="F252">
         <v>13.31666667</v>
@@ -5470,13 +5470,13 @@
         <v>60.35</v>
       </c>
       <c r="C253">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D253">
         <v>15.122</v>
       </c>
       <c r="E253">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F253">
         <v>13.31666667</v>
@@ -5490,13 +5490,13 @@
         <v>60.35</v>
       </c>
       <c r="C254">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D254">
         <v>15.122</v>
       </c>
       <c r="E254">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F254">
         <v>13.31666667</v>
@@ -5510,13 +5510,13 @@
         <v>60.35</v>
       </c>
       <c r="C255">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D255">
         <v>15.122</v>
       </c>
       <c r="E255">
-        <v>1.503911141984466</v>
+        <v>3.398979163666402</v>
       </c>
       <c r="F255">
         <v>13.31666667</v>
@@ -5530,13 +5530,13 @@
         <v>60.35</v>
       </c>
       <c r="C256">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D256">
         <v>15.122</v>
       </c>
       <c r="E256">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F256">
         <v>13.31666667</v>
@@ -5550,13 +5550,13 @@
         <v>60.35</v>
       </c>
       <c r="C257">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D257">
         <v>15.122</v>
       </c>
       <c r="E257">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F257">
         <v>13.31666667</v>
@@ -5570,13 +5570,13 @@
         <v>60.35</v>
       </c>
       <c r="C258">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D258">
         <v>15.122</v>
       </c>
       <c r="E258">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F258">
         <v>13.31666667</v>
@@ -5590,13 +5590,13 @@
         <v>60.35</v>
       </c>
       <c r="C259">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D259">
         <v>15.122</v>
       </c>
       <c r="E259">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F259">
         <v>13.31666667</v>
@@ -5610,13 +5610,13 @@
         <v>60.35</v>
       </c>
       <c r="C260">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D260">
         <v>15.122</v>
       </c>
       <c r="E260">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F260">
         <v>13.31666667</v>
@@ -5630,13 +5630,13 @@
         <v>60.35</v>
       </c>
       <c r="C261">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D261">
         <v>15.122</v>
       </c>
       <c r="E261">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F261">
         <v>13.31666667</v>
@@ -5650,13 +5650,13 @@
         <v>60.35</v>
       </c>
       <c r="C262">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D262">
         <v>15.122</v>
       </c>
       <c r="E262">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F262">
         <v>13.31666667</v>
@@ -5670,13 +5670,13 @@
         <v>60.35</v>
       </c>
       <c r="C263">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D263">
         <v>15.122</v>
       </c>
       <c r="E263">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F263">
         <v>13.31666667</v>
@@ -5690,13 +5690,13 @@
         <v>60.35</v>
       </c>
       <c r="C264">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D264">
         <v>15.122</v>
       </c>
       <c r="E264">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F264">
         <v>13.31666667</v>
@@ -5710,13 +5710,13 @@
         <v>60.35</v>
       </c>
       <c r="C265">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D265">
         <v>15.122</v>
       </c>
       <c r="E265">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F265">
         <v>13.31666667</v>
@@ -5730,13 +5730,13 @@
         <v>60.35</v>
       </c>
       <c r="C266">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D266">
         <v>15.122</v>
       </c>
       <c r="E266">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F266">
         <v>13.31666667</v>
@@ -5750,13 +5750,13 @@
         <v>60.35</v>
       </c>
       <c r="C267">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D267">
         <v>15.122</v>
       </c>
       <c r="E267">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F267">
         <v>13.31666667</v>
@@ -5770,13 +5770,13 @@
         <v>60.35</v>
       </c>
       <c r="C268">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D268">
         <v>15.122</v>
       </c>
       <c r="E268">
-        <v>1.509128153944913</v>
+        <v>3.725264758291832</v>
       </c>
       <c r="F268">
         <v>13.31666667</v>
@@ -5790,13 +5790,13 @@
         <v>60.35</v>
       </c>
       <c r="C269">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D269">
         <v>15.122</v>
       </c>
       <c r="E269">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F269">
         <v>13.31666667</v>
@@ -5810,13 +5810,13 @@
         <v>60.35</v>
       </c>
       <c r="C270">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D270">
         <v>15.122</v>
       </c>
       <c r="E270">
-        <v>1.503911141984466</v>
+        <v>3.398979163666402</v>
       </c>
       <c r="F270">
         <v>13.31666667</v>
@@ -5830,13 +5830,13 @@
         <v>60.35</v>
       </c>
       <c r="C271">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D271">
         <v>15.122</v>
       </c>
       <c r="E271">
-        <v>1.707137739002525</v>
+        <v>6.800314841711686</v>
       </c>
       <c r="F271">
         <v>13.31666667</v>
@@ -5850,13 +5850,13 @@
         <v>60.35</v>
       </c>
       <c r="C272">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D272">
         <v>15.122</v>
       </c>
       <c r="E272">
-        <v>1.50724007090104</v>
+        <v>3.658002738627534</v>
       </c>
       <c r="F272">
         <v>13.31666667</v>
@@ -5870,13 +5870,13 @@
         <v>60.35</v>
       </c>
       <c r="C273">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D273">
         <v>15.122</v>
       </c>
       <c r="E273">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F273">
         <v>13.31666667</v>
@@ -5890,13 +5890,13 @@
         <v>60.35</v>
       </c>
       <c r="C274">
-        <v>3.621000000000003</v>
+        <v>7.242</v>
       </c>
       <c r="D274">
         <v>15.122</v>
       </c>
       <c r="E274">
-        <v>1.502800000000001</v>
+        <v>3.196000000000001</v>
       </c>
       <c r="F274">
         <v>13.31666667</v>
@@ -5910,13 +5910,13 @@
         <v>115.99</v>
       </c>
       <c r="C275">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D275">
         <v>21.485</v>
       </c>
       <c r="E275">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F275">
         <v>46.5</v>
@@ -5930,13 +5930,13 @@
         <v>115.99</v>
       </c>
       <c r="C276">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D276">
         <v>21.485</v>
       </c>
       <c r="E276">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F276">
         <v>46.5</v>
@@ -5950,13 +5950,13 @@
         <v>115.99</v>
       </c>
       <c r="C277">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D277">
         <v>21.485</v>
       </c>
       <c r="E277">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F277">
         <v>46.5</v>
@@ -5970,13 +5970,13 @@
         <v>115.99</v>
       </c>
       <c r="C278">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D278">
         <v>21.485</v>
       </c>
       <c r="E278">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F278">
         <v>46.5</v>
@@ -5990,13 +5990,13 @@
         <v>115.99</v>
       </c>
       <c r="C279">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D279">
         <v>21.485</v>
       </c>
       <c r="E279">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F279">
         <v>46.5</v>
@@ -6010,13 +6010,13 @@
         <v>115.99</v>
       </c>
       <c r="C280">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D280">
         <v>21.485</v>
       </c>
       <c r="E280">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F280">
         <v>46.5</v>
@@ -6030,13 +6030,13 @@
         <v>115.99</v>
       </c>
       <c r="C281">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D281">
         <v>21.485</v>
       </c>
       <c r="E281">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F281">
         <v>46.5</v>
@@ -6050,13 +6050,13 @@
         <v>115.99</v>
       </c>
       <c r="C282">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D282">
         <v>21.485</v>
       </c>
       <c r="E282">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F282">
         <v>46.5</v>
@@ -6070,13 +6070,13 @@
         <v>115.99</v>
       </c>
       <c r="C283">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D283">
         <v>21.485</v>
       </c>
       <c r="E283">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F283">
         <v>46.5</v>
@@ -6090,13 +6090,13 @@
         <v>115.99</v>
       </c>
       <c r="C284">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D284">
         <v>21.485</v>
       </c>
       <c r="E284">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F284">
         <v>46.5</v>
@@ -6110,13 +6110,13 @@
         <v>115.99</v>
       </c>
       <c r="C285">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D285">
         <v>21.485</v>
       </c>
       <c r="E285">
-        <v>2.890243199308459</v>
+        <v>5.06427518341574</v>
       </c>
       <c r="F285">
         <v>46.5</v>
@@ -6130,13 +6130,13 @@
         <v>115.99</v>
       </c>
       <c r="C286">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D286">
         <v>21.485</v>
       </c>
       <c r="E286">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F286">
         <v>46.5</v>
@@ -6150,13 +6150,13 @@
         <v>115.99</v>
       </c>
       <c r="C287">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D287">
         <v>21.485</v>
       </c>
       <c r="E287">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F287">
         <v>46.5</v>
@@ -6170,13 +6170,13 @@
         <v>115.99</v>
       </c>
       <c r="C288">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D288">
         <v>21.485</v>
       </c>
       <c r="E288">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F288">
         <v>46.5</v>
@@ -6190,13 +6190,13 @@
         <v>115.99</v>
       </c>
       <c r="C289">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D289">
         <v>21.485</v>
       </c>
       <c r="E289">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F289">
         <v>46.5</v>
@@ -6210,13 +6210,13 @@
         <v>115.99</v>
       </c>
       <c r="C290">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D290">
         <v>21.485</v>
       </c>
       <c r="E290">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F290">
         <v>46.5</v>
@@ -6230,13 +6230,13 @@
         <v>115.99</v>
       </c>
       <c r="C291">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D291">
         <v>21.485</v>
       </c>
       <c r="E291">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F291">
         <v>46.5</v>
@@ -6250,13 +6250,13 @@
         <v>115.99</v>
       </c>
       <c r="C292">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D292">
         <v>21.485</v>
       </c>
       <c r="E292">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F292">
         <v>46.5</v>
@@ -6270,13 +6270,13 @@
         <v>115.99</v>
       </c>
       <c r="C293">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D293">
         <v>21.485</v>
       </c>
       <c r="E293">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F293">
         <v>46.5</v>
@@ -6290,13 +6290,13 @@
         <v>115.99</v>
       </c>
       <c r="C294">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D294">
         <v>21.485</v>
       </c>
       <c r="E294">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F294">
         <v>46.5</v>
@@ -6310,13 +6310,13 @@
         <v>115.99</v>
       </c>
       <c r="C295">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D295">
         <v>21.485</v>
       </c>
       <c r="E295">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F295">
         <v>46.5</v>
@@ -6330,13 +6330,13 @@
         <v>115.99</v>
       </c>
       <c r="C296">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D296">
         <v>21.485</v>
       </c>
       <c r="E296">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F296">
         <v>46.5</v>
@@ -6350,13 +6350,13 @@
         <v>115.99</v>
       </c>
       <c r="C297">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D297">
         <v>21.485</v>
       </c>
       <c r="E297">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F297">
         <v>46.5</v>
@@ -6370,13 +6370,13 @@
         <v>115.99</v>
       </c>
       <c r="C298">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D298">
         <v>21.485</v>
       </c>
       <c r="E298">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F298">
         <v>46.5</v>
@@ -6390,13 +6390,13 @@
         <v>115.99</v>
       </c>
       <c r="C299">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D299">
         <v>21.485</v>
       </c>
       <c r="E299">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F299">
         <v>46.5</v>
@@ -6410,13 +6410,13 @@
         <v>115.99</v>
       </c>
       <c r="C300">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D300">
         <v>21.485</v>
       </c>
       <c r="E300">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F300">
         <v>46.5</v>
@@ -6430,13 +6430,13 @@
         <v>115.99</v>
       </c>
       <c r="C301">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D301">
         <v>21.485</v>
       </c>
       <c r="E301">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F301">
         <v>46.5</v>
@@ -6450,13 +6450,13 @@
         <v>115.99</v>
       </c>
       <c r="C302">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D302">
         <v>21.485</v>
       </c>
       <c r="E302">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F302">
         <v>46.5</v>
@@ -6470,13 +6470,13 @@
         <v>115.99</v>
       </c>
       <c r="C303">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D303">
         <v>21.485</v>
       </c>
       <c r="E303">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F303">
         <v>46.5</v>
@@ -6490,13 +6490,13 @@
         <v>115.99</v>
       </c>
       <c r="C304">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D304">
         <v>21.485</v>
       </c>
       <c r="E304">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F304">
         <v>46.5</v>
@@ -6510,13 +6510,13 @@
         <v>115.99</v>
       </c>
       <c r="C305">
-        <v>6.959400000000006</v>
+        <v>13.9188</v>
       </c>
       <c r="D305">
         <v>21.485</v>
       </c>
       <c r="E305">
-        <v>2.888314366197185</v>
+        <v>6.142569014084507</v>
       </c>
       <c r="F305">
         <v>46.5</v>
@@ -6530,13 +6530,13 @@
         <v>24</v>
       </c>
       <c r="C306">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D306">
         <v>20</v>
       </c>
       <c r="E306">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F306">
         <v>19.99</v>
@@ -6550,13 +6550,13 @@
         <v>24</v>
       </c>
       <c r="C307">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D307">
         <v>20</v>
       </c>
       <c r="E307">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F307">
         <v>19.99</v>
@@ -6570,13 +6570,13 @@
         <v>24</v>
       </c>
       <c r="C308">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D308">
         <v>20</v>
       </c>
       <c r="E308">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F308">
         <v>19.99</v>
@@ -6590,13 +6590,13 @@
         <v>24</v>
       </c>
       <c r="C309">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D309">
         <v>20</v>
       </c>
       <c r="E309">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F309">
         <v>19.99</v>
@@ -6610,13 +6610,13 @@
         <v>24</v>
       </c>
       <c r="C310">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D310">
         <v>20</v>
       </c>
       <c r="E310">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F310">
         <v>19.99</v>
@@ -6630,13 +6630,13 @@
         <v>24</v>
       </c>
       <c r="C311">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D311">
         <v>20</v>
       </c>
       <c r="E311">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F311">
         <v>19.99</v>
@@ -6650,13 +6650,13 @@
         <v>24</v>
       </c>
       <c r="C312">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D312">
         <v>20</v>
       </c>
       <c r="E312">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F312">
         <v>19.99</v>
@@ -6670,13 +6670,13 @@
         <v>24</v>
       </c>
       <c r="C313">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D313">
         <v>20</v>
       </c>
       <c r="E313">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F313">
         <v>19.99</v>
@@ -6690,13 +6690,13 @@
         <v>24</v>
       </c>
       <c r="C314">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D314">
         <v>20</v>
       </c>
       <c r="E314">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F314">
         <v>19.99</v>
@@ -6710,13 +6710,13 @@
         <v>24</v>
       </c>
       <c r="C315">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D315">
         <v>20</v>
       </c>
       <c r="E315">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F315">
         <v>19.99</v>
@@ -6730,13 +6730,13 @@
         <v>24</v>
       </c>
       <c r="C316">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D316">
         <v>20</v>
       </c>
       <c r="E316">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F316">
         <v>19.99</v>
@@ -6750,13 +6750,13 @@
         <v>24</v>
       </c>
       <c r="C317">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D317">
         <v>20</v>
       </c>
       <c r="E317">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F317">
         <v>19.99</v>
@@ -6770,13 +6770,13 @@
         <v>24</v>
       </c>
       <c r="C318">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D318">
         <v>20</v>
       </c>
       <c r="E318">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F318">
         <v>19.99</v>
@@ -6790,13 +6790,13 @@
         <v>24</v>
       </c>
       <c r="C319">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D319">
         <v>20</v>
       </c>
       <c r="E319">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F319">
         <v>19.99</v>
@@ -6810,13 +6810,13 @@
         <v>24</v>
       </c>
       <c r="C320">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D320">
         <v>20</v>
       </c>
       <c r="E320">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F320">
         <v>19.99</v>
@@ -6830,13 +6830,13 @@
         <v>24</v>
       </c>
       <c r="C321">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D321">
         <v>20</v>
       </c>
       <c r="E321">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F321">
         <v>19.99</v>
@@ -6850,13 +6850,13 @@
         <v>24</v>
       </c>
       <c r="C322">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D322">
         <v>20</v>
       </c>
       <c r="E322">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F322">
         <v>19.99</v>
@@ -6870,13 +6870,13 @@
         <v>24</v>
       </c>
       <c r="C323">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D323">
         <v>20</v>
       </c>
       <c r="E323">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F323">
         <v>19.99</v>
@@ -6890,13 +6890,13 @@
         <v>24</v>
       </c>
       <c r="C324">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D324">
         <v>20</v>
       </c>
       <c r="E324">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F324">
         <v>19.99</v>
@@ -6910,13 +6910,13 @@
         <v>24</v>
       </c>
       <c r="C325">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D325">
         <v>20</v>
       </c>
       <c r="E325">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F325">
         <v>19.99</v>
@@ -6930,13 +6930,13 @@
         <v>24</v>
       </c>
       <c r="C326">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D326">
         <v>20</v>
       </c>
       <c r="E326">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F326">
         <v>19.99</v>
@@ -6950,13 +6950,13 @@
         <v>24</v>
       </c>
       <c r="C327">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D327">
         <v>20</v>
       </c>
       <c r="E327">
-        <v>0.598342289978683</v>
+        <v>1.665238429179915</v>
       </c>
       <c r="F327">
         <v>19.99</v>
@@ -6970,13 +6970,13 @@
         <v>24</v>
       </c>
       <c r="C328">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D328">
         <v>20</v>
       </c>
       <c r="E328">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F328">
         <v>19.99</v>
@@ -6990,13 +6990,13 @@
         <v>24</v>
       </c>
       <c r="C329">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D329">
         <v>20</v>
       </c>
       <c r="E329">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F329">
         <v>19.99</v>
@@ -7010,13 +7010,13 @@
         <v>24</v>
       </c>
       <c r="C330">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D330">
         <v>20</v>
       </c>
       <c r="E330">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F330">
         <v>19.99</v>
@@ -7030,13 +7030,13 @@
         <v>24</v>
       </c>
       <c r="C331">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D331">
         <v>20</v>
       </c>
       <c r="E331">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F331">
         <v>19.99</v>
@@ -7050,13 +7050,13 @@
         <v>24</v>
       </c>
       <c r="C332">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D332">
         <v>20</v>
       </c>
       <c r="E332">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F332">
         <v>19.99</v>
@@ -7070,13 +7070,13 @@
         <v>24</v>
       </c>
       <c r="C333">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D333">
         <v>20</v>
       </c>
       <c r="E333">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F333">
         <v>19.99</v>
@@ -7090,13 +7090,13 @@
         <v>24</v>
       </c>
       <c r="C334">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D334">
         <v>20</v>
       </c>
       <c r="E334">
-        <v>0.5976338028169018</v>
+        <v>1.270985915492958</v>
       </c>
       <c r="F334">
         <v>19.99</v>
@@ -7110,13 +7110,13 @@
         <v>24</v>
       </c>
       <c r="C335">
-        <v>1.440000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="D335">
         <v>20</v>
       </c>
       <c r="E335">
-        <v>0.6004663167943425</v>
+        <v>2.371173519157381</v>
       </c>
       <c r="F335">
         <v>19.99</v>
@@ -7130,13 +7130,13 @@
         <v>45.68</v>
       </c>
       <c r="C336">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D336">
         <v>24.84</v>
       </c>
       <c r="E336">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F336">
         <v>19.15</v>
@@ -7150,13 +7150,13 @@
         <v>45.68</v>
       </c>
       <c r="C337">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D337">
         <v>24.84</v>
       </c>
       <c r="E337">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F337">
         <v>19.15</v>
@@ -7170,13 +7170,13 @@
         <v>45.68</v>
       </c>
       <c r="C338">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D338">
         <v>24.84</v>
       </c>
       <c r="E338">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F338">
         <v>19.15</v>
@@ -7190,13 +7190,13 @@
         <v>45.68</v>
       </c>
       <c r="C339">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D339">
         <v>24.84</v>
       </c>
       <c r="E339">
-        <v>1.14058095630254</v>
+        <v>3.142828412203903</v>
       </c>
       <c r="F339">
         <v>19.15</v>
@@ -7210,13 +7210,13 @@
         <v>45.68</v>
       </c>
       <c r="C340">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D340">
         <v>24.84</v>
       </c>
       <c r="E340">
-        <v>1.141813346884698</v>
+        <v>3.275497022823824</v>
       </c>
       <c r="F340">
         <v>19.15</v>
@@ -7230,13 +7230,13 @@
         <v>45.68</v>
       </c>
       <c r="C341">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D341">
         <v>24.84</v>
       </c>
       <c r="E341">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F341">
         <v>19.15</v>
@@ -7250,13 +7250,13 @@
         <v>45.68</v>
       </c>
       <c r="C342">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D342">
         <v>24.84</v>
       </c>
       <c r="E342">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F342">
         <v>19.15</v>
@@ -7270,13 +7270,13 @@
         <v>45.68</v>
       </c>
       <c r="C343">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D343">
         <v>24.84</v>
       </c>
       <c r="E343">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F343">
         <v>19.15</v>
@@ -7290,13 +7290,13 @@
         <v>45.68</v>
       </c>
       <c r="C344">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D344">
         <v>24.84</v>
       </c>
       <c r="E344">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F344">
         <v>19.15</v>
@@ -7310,13 +7310,13 @@
         <v>45.68</v>
       </c>
       <c r="C345">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D345">
         <v>24.84</v>
       </c>
       <c r="E345">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F345">
         <v>19.15</v>
@@ -7330,13 +7330,13 @@
         <v>45.68</v>
       </c>
       <c r="C346">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D346">
         <v>24.84</v>
       </c>
       <c r="E346">
-        <v>1.149691366909088</v>
+        <v>3.636269409427346</v>
       </c>
       <c r="F346">
         <v>19.15</v>
@@ -7350,13 +7350,13 @@
         <v>45.68</v>
       </c>
       <c r="C347">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D347">
         <v>24.84</v>
       </c>
       <c r="E347">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F347">
         <v>19.15</v>
@@ -7370,13 +7370,13 @@
         <v>45.68</v>
       </c>
       <c r="C348">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D348">
         <v>24.84</v>
       </c>
       <c r="E348">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F348">
         <v>19.15</v>
@@ -7390,13 +7390,13 @@
         <v>45.68</v>
       </c>
       <c r="C349">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D349">
         <v>24.84</v>
       </c>
       <c r="E349">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F349">
         <v>19.15</v>
@@ -7410,13 +7410,13 @@
         <v>45.68</v>
       </c>
       <c r="C350">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D350">
         <v>24.84</v>
       </c>
       <c r="E350">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F350">
         <v>19.15</v>
@@ -7430,13 +7430,13 @@
         <v>45.68</v>
       </c>
       <c r="C351">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D351">
         <v>24.84</v>
       </c>
       <c r="E351">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F351">
         <v>19.15</v>
@@ -7450,13 +7450,13 @@
         <v>45.68</v>
       </c>
       <c r="C352">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D352">
         <v>24.84</v>
       </c>
       <c r="E352">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F352">
         <v>19.15</v>
@@ -7470,13 +7470,13 @@
         <v>45.68</v>
       </c>
       <c r="C353">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D353">
         <v>24.84</v>
       </c>
       <c r="E353">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F353">
         <v>19.15</v>
@@ -7490,13 +7490,13 @@
         <v>45.68</v>
       </c>
       <c r="C354">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D354">
         <v>24.84</v>
       </c>
       <c r="E354">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F354">
         <v>19.15</v>
@@ -7510,13 +7510,13 @@
         <v>45.68</v>
       </c>
       <c r="C355">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D355">
         <v>24.84</v>
       </c>
       <c r="E355">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F355">
         <v>19.15</v>
@@ -7530,13 +7530,13 @@
         <v>45.68</v>
       </c>
       <c r="C356">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D356">
         <v>24.84</v>
       </c>
       <c r="E356">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F356">
         <v>19.15</v>
@@ -7550,13 +7550,13 @@
         <v>45.68</v>
       </c>
       <c r="C357">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D357">
         <v>24.84</v>
       </c>
       <c r="E357">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F357">
         <v>19.15</v>
@@ -7570,13 +7570,13 @@
         <v>45.68</v>
       </c>
       <c r="C358">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D358">
         <v>24.84</v>
       </c>
       <c r="E358">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F358">
         <v>19.15</v>
@@ -7590,13 +7590,13 @@
         <v>45.68</v>
       </c>
       <c r="C359">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D359">
         <v>24.84</v>
       </c>
       <c r="E359">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F359">
         <v>19.15</v>
@@ -7610,13 +7610,13 @@
         <v>45.68</v>
       </c>
       <c r="C360">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D360">
         <v>24.84</v>
       </c>
       <c r="E360">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F360">
         <v>19.15</v>
@@ -7630,13 +7630,13 @@
         <v>45.68</v>
       </c>
       <c r="C361">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D361">
         <v>24.84</v>
       </c>
       <c r="E361">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F361">
         <v>19.15</v>
@@ -7650,13 +7650,13 @@
         <v>45.68</v>
       </c>
       <c r="C362">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D362">
         <v>24.84</v>
       </c>
       <c r="E362">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F362">
         <v>19.15</v>
@@ -7670,13 +7670,13 @@
         <v>45.68</v>
       </c>
       <c r="C363">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D363">
         <v>24.84</v>
       </c>
       <c r="E363">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F363">
         <v>19.15</v>
@@ -7690,13 +7690,13 @@
         <v>45.68</v>
       </c>
       <c r="C364">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D364">
         <v>24.84</v>
       </c>
       <c r="E364">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F364">
         <v>19.15</v>
@@ -7710,13 +7710,13 @@
         <v>45.68</v>
       </c>
       <c r="C365">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D365">
         <v>24.84</v>
       </c>
       <c r="E365">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F365">
         <v>19.15</v>
@@ -7730,13 +7730,13 @@
         <v>45.68</v>
       </c>
       <c r="C366">
-        <v>2.740800000000002</v>
+        <v>5.481599999999999</v>
       </c>
       <c r="D366">
         <v>24.84</v>
       </c>
       <c r="E366">
-        <v>1.13749633802817</v>
+        <v>2.41910985915493</v>
       </c>
       <c r="F366">
         <v>19.15</v>
@@ -7744,8 +7744,9 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E369">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>10</formula>
+      <formula>30</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>30</formula>
